--- a/CL_scraper/output/Example Listing Pull for Denver 2-20-17.xlsx
+++ b/CL_scraper/output/Example Listing Pull for Denver 2-20-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="469">
   <si>
     <t>posting_ID</t>
   </si>
@@ -40,1363 +40,1387 @@
     <t>Reply_contact_info_link</t>
   </si>
   <si>
-    <t>5982939642</t>
-  </si>
-  <si>
-    <t>6004191522</t>
-  </si>
-  <si>
-    <t>5992857207</t>
-  </si>
-  <si>
-    <t>5974170246</t>
-  </si>
-  <si>
-    <t>5998652627</t>
-  </si>
-  <si>
-    <t>5998165201</t>
-  </si>
-  <si>
-    <t>6012694368</t>
-  </si>
-  <si>
-    <t>6012688833</t>
-  </si>
-  <si>
-    <t>6012671518</t>
-  </si>
-  <si>
-    <t>5995589088</t>
-  </si>
-  <si>
-    <t>6009701108</t>
-  </si>
-  <si>
-    <t>5996260334</t>
-  </si>
-  <si>
-    <t>6009645065</t>
-  </si>
-  <si>
-    <t>6003660798</t>
-  </si>
-  <si>
-    <t>5985596944</t>
-  </si>
-  <si>
-    <t>6003935914</t>
-  </si>
-  <si>
-    <t>6012669204</t>
-  </si>
-  <si>
-    <t>6012657217</t>
-  </si>
-  <si>
-    <t>6005168256</t>
-  </si>
-  <si>
-    <t>5971539008</t>
-  </si>
-  <si>
-    <t>5987829974</t>
-  </si>
-  <si>
-    <t>5993181182</t>
-  </si>
-  <si>
-    <t>5995171805</t>
-  </si>
-  <si>
-    <t>5987813125</t>
-  </si>
-  <si>
-    <t>5974377881</t>
-  </si>
-  <si>
-    <t>5987796545</t>
-  </si>
-  <si>
-    <t>5995821686</t>
-  </si>
-  <si>
-    <t>5994740851</t>
-  </si>
-  <si>
-    <t>5987779145</t>
-  </si>
-  <si>
-    <t>5987775677</t>
-  </si>
-  <si>
-    <t>5987772073</t>
-  </si>
-  <si>
-    <t>5987760955</t>
-  </si>
-  <si>
-    <t>5993169854</t>
-  </si>
-  <si>
-    <t>5987755736</t>
-  </si>
-  <si>
-    <t>5993176792</t>
-  </si>
-  <si>
-    <t>5987758642</t>
-  </si>
-  <si>
-    <t>5993173177</t>
-  </si>
-  <si>
-    <t>5987738776</t>
-  </si>
-  <si>
-    <t>5981877490</t>
-  </si>
-  <si>
-    <t>5993175154</t>
-  </si>
-  <si>
-    <t>6012649393</t>
-  </si>
-  <si>
-    <t>5987737010</t>
-  </si>
-  <si>
-    <t>5987718535</t>
-  </si>
-  <si>
-    <t>5987716081</t>
-  </si>
-  <si>
-    <t>5991787366</t>
-  </si>
-  <si>
-    <t>6012639829</t>
-  </si>
-  <si>
-    <t>6012645970</t>
-  </si>
-  <si>
-    <t>6009722398</t>
-  </si>
-  <si>
-    <t>6009579520</t>
-  </si>
-  <si>
-    <t>6006764886</t>
-  </si>
-  <si>
-    <t>5981883974</t>
-  </si>
-  <si>
-    <t>6001986574</t>
-  </si>
-  <si>
-    <t>6012646530</t>
-  </si>
-  <si>
-    <t>6012638981</t>
-  </si>
-  <si>
-    <t>5993510608</t>
-  </si>
-  <si>
-    <t>6012629198</t>
-  </si>
-  <si>
-    <t>6012634384</t>
-  </si>
-  <si>
-    <t>6012629150</t>
-  </si>
-  <si>
-    <t>6006848553</t>
-  </si>
-  <si>
-    <t>6006802214</t>
-  </si>
-  <si>
-    <t>5986281018</t>
-  </si>
-  <si>
-    <t>6012613718</t>
-  </si>
-  <si>
-    <t>6006721630</t>
-  </si>
-  <si>
-    <t>5997963380</t>
-  </si>
-  <si>
-    <t>5993532133</t>
-  </si>
-  <si>
-    <t>5991121530</t>
-  </si>
-  <si>
-    <t>5976871517</t>
-  </si>
-  <si>
-    <t>6006225667</t>
-  </si>
-  <si>
-    <t>5988271753</t>
-  </si>
-  <si>
-    <t>6012627253</t>
-  </si>
-  <si>
-    <t>6003310707</t>
-  </si>
-  <si>
-    <t>6012610980</t>
-  </si>
-  <si>
-    <t>6007391816</t>
-  </si>
-  <si>
-    <t>6005146606</t>
-  </si>
-  <si>
-    <t>5989729915</t>
-  </si>
-  <si>
-    <t>6012621278</t>
-  </si>
-  <si>
-    <t>5989552572</t>
-  </si>
-  <si>
-    <t>6012595674</t>
-  </si>
-  <si>
-    <t>5977685360</t>
-  </si>
-  <si>
-    <t>6012596255</t>
-  </si>
-  <si>
-    <t>6002610640</t>
-  </si>
-  <si>
-    <t>6006842879</t>
-  </si>
-  <si>
-    <t>5972672827</t>
-  </si>
-  <si>
-    <t>5975702874</t>
-  </si>
-  <si>
-    <t>6006711423</t>
-  </si>
-  <si>
-    <t>6009646400</t>
-  </si>
-  <si>
-    <t>6002591849</t>
-  </si>
-  <si>
-    <t>6005106120</t>
-  </si>
-  <si>
-    <t>6012604245</t>
-  </si>
-  <si>
-    <t>6012579077</t>
-  </si>
-  <si>
-    <t>5986916261</t>
-  </si>
-  <si>
-    <t>6012603781</t>
-  </si>
-  <si>
-    <t>5986912512</t>
-  </si>
-  <si>
-    <t>6012599778</t>
-  </si>
-  <si>
-    <t>6006819519</t>
-  </si>
-  <si>
-    <t>6003913675</t>
-  </si>
-  <si>
-    <t>6002593490</t>
-  </si>
-  <si>
-    <t>5986608679</t>
-  </si>
-  <si>
-    <t>6009696862</t>
-  </si>
-  <si>
-    <t>6012589714</t>
-  </si>
-  <si>
-    <t>Don't chose between Boulder and Denver, live in the middle of BOTH!!!!</t>
-  </si>
-  <si>
-    <t>GAS STOVES!! WINE FRIDGE!! Urban/Modern RiNo/LoDo/FivePoints/Denver</t>
-  </si>
-  <si>
-    <t>Whole Foods Market is Steps from Your Door!! DTC/Capitol Hill/Downtown</t>
-  </si>
-  <si>
-    <t>Walking Distance to Trader Joe's!!!! Smack between Downtown &amp; SoBo!!!!</t>
-  </si>
-  <si>
-    <t>If your apartment is going to make a statement... WashingtonPark/Speer</t>
-  </si>
-  <si>
-    <t>Renovated, Move in Special, Patio</t>
+    <t>5992173352</t>
+  </si>
+  <si>
+    <t>6013083903</t>
+  </si>
+  <si>
+    <t>6013083695</t>
+  </si>
+  <si>
+    <t>5992114916</t>
+  </si>
+  <si>
+    <t>6013078674</t>
+  </si>
+  <si>
+    <t>6013074964</t>
+  </si>
+  <si>
+    <t>6013074379</t>
+  </si>
+  <si>
+    <t>5988595990</t>
+  </si>
+  <si>
+    <t>6013070919</t>
+  </si>
+  <si>
+    <t>6013056564</t>
+  </si>
+  <si>
+    <t>6013069435</t>
+  </si>
+  <si>
+    <t>5995604129</t>
+  </si>
+  <si>
+    <t>6013061992</t>
+  </si>
+  <si>
+    <t>6005969399</t>
+  </si>
+  <si>
+    <t>6002165820</t>
+  </si>
+  <si>
+    <t>5981739643</t>
+  </si>
+  <si>
+    <t>5984481871</t>
+  </si>
+  <si>
+    <t>6013036627</t>
+  </si>
+  <si>
+    <t>5996396585</t>
+  </si>
+  <si>
+    <t>6004831131</t>
+  </si>
+  <si>
+    <t>6003443254</t>
+  </si>
+  <si>
+    <t>6008751511</t>
+  </si>
+  <si>
+    <t>5999233177</t>
+  </si>
+  <si>
+    <t>6003084143</t>
+  </si>
+  <si>
+    <t>5972790522</t>
+  </si>
+  <si>
+    <t>6013039200</t>
+  </si>
+  <si>
+    <t>5983353652</t>
+  </si>
+  <si>
+    <t>5976262518</t>
+  </si>
+  <si>
+    <t>6012967633</t>
+  </si>
+  <si>
+    <t>6008221018</t>
+  </si>
+  <si>
+    <t>5993284495</t>
+  </si>
+  <si>
+    <t>6013006982</t>
+  </si>
+  <si>
+    <t>5993076241</t>
+  </si>
+  <si>
+    <t>6001295647</t>
+  </si>
+  <si>
+    <t>6012997988</t>
+  </si>
+  <si>
+    <t>6012993425</t>
+  </si>
+  <si>
+    <t>6012997195</t>
+  </si>
+  <si>
+    <t>6012994529</t>
+  </si>
+  <si>
+    <t>5996890002</t>
+  </si>
+  <si>
+    <t>6012996022</t>
+  </si>
+  <si>
+    <t>6012992837</t>
+  </si>
+  <si>
+    <t>5993751807</t>
+  </si>
+  <si>
+    <t>5992610616</t>
+  </si>
+  <si>
+    <t>6012981626</t>
+  </si>
+  <si>
+    <t>5976251481</t>
+  </si>
+  <si>
+    <t>6007653009</t>
+  </si>
+  <si>
+    <t>6012970647</t>
+  </si>
+  <si>
+    <t>6009066234</t>
+  </si>
+  <si>
+    <t>5993526526</t>
+  </si>
+  <si>
+    <t>5999368623</t>
+  </si>
+  <si>
+    <t>5994893408</t>
+  </si>
+  <si>
+    <t>6012967129</t>
+  </si>
+  <si>
+    <t>6012966869</t>
+  </si>
+  <si>
+    <t>6005476191</t>
+  </si>
+  <si>
+    <t>6008282192</t>
+  </si>
+  <si>
+    <t>5994911627</t>
+  </si>
+  <si>
+    <t>5993578719</t>
+  </si>
+  <si>
+    <t>5993313602</t>
+  </si>
+  <si>
+    <t>6007866780</t>
+  </si>
+  <si>
+    <t>6004580940</t>
+  </si>
+  <si>
+    <t>6008362809</t>
+  </si>
+  <si>
+    <t>5991832955</t>
+  </si>
+  <si>
+    <t>5991831735</t>
+  </si>
+  <si>
+    <t>6007667718</t>
+  </si>
+  <si>
+    <t>6003922371</t>
+  </si>
+  <si>
+    <t>6012933230</t>
+  </si>
+  <si>
+    <t>6002057067</t>
+  </si>
+  <si>
+    <t>5984897215</t>
+  </si>
+  <si>
+    <t>5979225504</t>
+  </si>
+  <si>
+    <t>6001489658</t>
+  </si>
+  <si>
+    <t>5995953119</t>
+  </si>
+  <si>
+    <t>6012912709</t>
+  </si>
+  <si>
+    <t>6012920700</t>
+  </si>
+  <si>
+    <t>5972553619</t>
+  </si>
+  <si>
+    <t>6008328084</t>
+  </si>
+  <si>
+    <t>6004756056</t>
+  </si>
+  <si>
+    <t>6009117906</t>
+  </si>
+  <si>
+    <t>5973586324</t>
+  </si>
+  <si>
+    <t>5993893511</t>
+  </si>
+  <si>
+    <t>5994903645</t>
+  </si>
+  <si>
+    <t>6008999208</t>
+  </si>
+  <si>
+    <t>5977662793</t>
+  </si>
+  <si>
+    <t>6003857251</t>
+  </si>
+  <si>
+    <t>5994000059</t>
+  </si>
+  <si>
+    <t>5980209195</t>
+  </si>
+  <si>
+    <t>5980215960</t>
+  </si>
+  <si>
+    <t>5980153717</t>
+  </si>
+  <si>
+    <t>5980194013</t>
+  </si>
+  <si>
+    <t>5980129391</t>
+  </si>
+  <si>
+    <t>5980115825</t>
+  </si>
+  <si>
+    <t>5975673776</t>
+  </si>
+  <si>
+    <t>5975686048</t>
+  </si>
+  <si>
+    <t>5975660639</t>
+  </si>
+  <si>
+    <t>5975635155</t>
+  </si>
+  <si>
+    <t>5975646342</t>
+  </si>
+  <si>
+    <t>5975608204</t>
+  </si>
+  <si>
+    <t>5975621734</t>
+  </si>
+  <si>
+    <t>5975594630</t>
+  </si>
+  <si>
+    <t>5975565597</t>
+  </si>
+  <si>
+    <t>5975579061</t>
+  </si>
+  <si>
+    <t>We have 3 bedroom apartments at Pine Creek</t>
+  </si>
+  <si>
+    <t>PET FRIENDLY, NEARLY NEW HOME!</t>
+  </si>
+  <si>
+    <t>Home for rent</t>
+  </si>
+  <si>
+    <t>Sharp and Spacious Townhome</t>
+  </si>
+  <si>
+    <t>Newer 3Be 2Ba 2Car Nice Single House Great Location</t>
+  </si>
+  <si>
+    <t>Downtown Speer Capitol Hill BEST Priced 1 Bed - 5 min to LODO Uptown</t>
+  </si>
+  <si>
+    <t>Amazing New Two Beds Move In Specials Available At SkyHouse Denver Lease Today!</t>
+  </si>
+  <si>
+    <t>Night Patrol, Package Receiving, On-Site Management</t>
+  </si>
+  <si>
+    <t>Quaint, Nice Living Space and Charming..</t>
+  </si>
+  <si>
+    <t>SAVE $8,100 - Super VIP Luxury - 2 Months FREE Rent - Downtown Golden Triangle C</t>
+  </si>
+  <si>
+    <t>Nice Townhouse For Rent</t>
+  </si>
+  <si>
+    <t>Modern + Classic Flat in LoHi</t>
+  </si>
+  <si>
+    <t>Beautiful House For Rent</t>
+  </si>
+  <si>
+    <t>DENVER UNIVERSITY - HOUSES FOR RENT FOR NEXT SCHOOL YEAR</t>
+  </si>
+  <si>
+    <t>Call and ask how to get $500 off the 1st months rent</t>
+  </si>
+  <si>
+    <t>Gorgeous New Town House on Tennyson</t>
+  </si>
+  <si>
+    <t>Northglenn Upscale Town home</t>
+  </si>
+  <si>
+    <t>Beautifully Re-Modeled 2 bed/ 1.5 bath Town Home</t>
+  </si>
+  <si>
+    <t>Cozy 1 bedroom with fireplace!</t>
+  </si>
+  <si>
+    <t>CARPORTS AVAILABLE!!! OPEN PARKING ONSITE!</t>
+  </si>
+  <si>
+    <t>Fix your rental credit history first! Pay us after it's fixed!</t>
+  </si>
+  <si>
+    <t>2 Bedroom Townhouse unit 5</t>
+  </si>
+  <si>
+    <t>DUPLEX for rent</t>
+  </si>
+  <si>
+    <t>3 bdrm.,  2 bath,  2  living rooms,  1  car garage  2400 sq. ft</t>
+  </si>
+  <si>
+    <t>Spacious Parker Home  Rent with right to buy</t>
+  </si>
+  <si>
+    <t>2 Months FREE - 2 Months FREE - Downtown Golden Triangle 5 min to LODO LoHi - Do</t>
+  </si>
+  <si>
+    <t>Refridgerator, Pets Allowed, Short Term Lease</t>
+  </si>
+  <si>
+    <t>Entertainment kitchen, Yoga Studio, Guest Suite</t>
+  </si>
+  <si>
+    <t>10579 WYNSPIRE WAY, HIGHLANDS RANCH, CO, 80130</t>
+  </si>
+  <si>
+    <t>Package Service, Walk to Dayton Station (LightRail), RTD, Two Hot Tubs</t>
+  </si>
+  <si>
+    <t>Amazing Park Hill Home</t>
+  </si>
+  <si>
+    <t>Downtown Downtown - 2 Months FREE Rent - 5 min to Union Station LODO</t>
+  </si>
+  <si>
+    <t>Large Parker Home  Rent before you purchase</t>
+  </si>
+  <si>
+    <t>5 bdrm,3 bath, 2200 sq ft Brick Ranch and Mountain View</t>
+  </si>
+  <si>
+    <t>3BR/3BA Highlands Ranch Home near Northridge Elementary</t>
+  </si>
+  <si>
+    <t>Large 2 bed/2bath condo in Cap Hill with off-street parking</t>
+  </si>
+  <si>
+    <t>Across from Infinity Park, Beautiful 1 Bdrm w/ Balcony for March/April</t>
+  </si>
+  <si>
+    <t>^^Downtown Ballpark Lodo "BEST PRICE" - Green Property - STUNNING VIEWS 5 min to</t>
+  </si>
+  <si>
+    <t>SOUTHERN LAKEWOOD 3 BEDROOM RANCH</t>
   </si>
   <si>
     <t>Beautiful Rennovated Two Bedroom Townhomes for February / March</t>
   </si>
   <si>
-    <t>Newly Remodeled Two Bedroom In Lakewood ! Move In Today!</t>
-  </si>
-  <si>
-    <t>3BR 2BA Single Family House Available May 5th!</t>
-  </si>
-  <si>
-    <t>Garden Tub, 24-Hour Fitness Center, Year-Round Hot Tub</t>
-  </si>
-  <si>
-    <t>Move in Special!  Remodeled and Classic Homes Available!</t>
-  </si>
-  <si>
-    <t>Accepts Electronic Payments, Business Center, TV Lounge</t>
-  </si>
-  <si>
-    <t>Save up to $1300 for vacation!!!</t>
-  </si>
-  <si>
-    <t>Spacious...Carport Included...Ready Now!</t>
-  </si>
-  <si>
-    <t>2 BR, 1 bath - Heat &amp; Water Paid!</t>
-  </si>
-  <si>
-    <t>24-Hour Fitness Center with Yoga Space, Two Hot Tubs, Air Conditioning</t>
-  </si>
-  <si>
-    <t>Move in by 3/16 and get 1/2 month free rent!!!</t>
-  </si>
-  <si>
-    <t>5 Br Home Perfect for DU Students Available July 1st!</t>
-  </si>
-  <si>
-    <t>Forever Views! Sure to Impress!</t>
-  </si>
-  <si>
-    <t>Spacious 2x2 avail for immediate occupancy with great Move In Special!</t>
-  </si>
-  <si>
-    <t>Thoughtfully stylish and well-designed building</t>
-  </si>
-  <si>
-    <t>Modern looks, beautiful finishes and the latest appliances</t>
-  </si>
-  <si>
-    <t>Two Seasonal Swimming Pools, Updater Moving Partner, Air Conditioning</t>
-  </si>
-  <si>
-    <t>New studios, one, two &amp; two + study luxury apartments</t>
-  </si>
-  <si>
-    <t>CHERRY CREEK SCHOOLS 2/3</t>
-  </si>
-  <si>
-    <t>Unbeatable view of downtown and amenities that cater to your every nee</t>
-  </si>
-  <si>
-    <t>3 Bdrm, 2 Bath Ranch Townhouse, Arvada (Arbor Green Golf Community)</t>
-  </si>
-  <si>
-    <t>HUGE TRI-LEVEL HOME over 2260 sq ft</t>
-  </si>
-  <si>
-    <t>Comfortable seating, lawn games, even outdoor</t>
-  </si>
-  <si>
-    <t>Prestigious living, located in an urban and walkable Denver avail now!</t>
-  </si>
-  <si>
-    <t>Imagine an expansive floor plan surrounded by beautiful views</t>
-  </si>
-  <si>
-    <t>Gorgeous one and two-bedroom uptown apartments</t>
-  </si>
-  <si>
-    <t>Trendy restaurants, stylish boutiques, eclectic shops and cool cafes</t>
-  </si>
-  <si>
-    <t>Custom cherry- or chestnut-finished cabinets</t>
-  </si>
-  <si>
-    <t>Stunning downtown and mountain views  Dynamic social spaces</t>
-  </si>
-  <si>
-    <t>Courtyards and enjoy the heated saltwater pool or hot tub</t>
-  </si>
-  <si>
-    <t>Modern floor plans featuring open layouts and breathtaking views</t>
-  </si>
-  <si>
-    <t>Perfect balance of relaxation and luxury</t>
-  </si>
-  <si>
-    <t>Ultra Modern Flex Space! 2/2</t>
-  </si>
-  <si>
-    <t>Perfect place to push your reset button after a busy day</t>
-  </si>
-  <si>
-    <t>2Bdrm + 2 Bath + garage</t>
-  </si>
-  <si>
-    <t>Wood-style flooring in entries, living rooms, kitchens and baths</t>
-  </si>
-  <si>
-    <t>CO and the perfect home for you</t>
-  </si>
-  <si>
-    <t>Luxury one-, two-, and three bedroom apartments for rent</t>
-  </si>
-  <si>
-    <t>Beautiful Mature Landscaping Business Cente</t>
-  </si>
-  <si>
-    <t>Condo For Lease</t>
-  </si>
-  <si>
-    <t>For Rent 2 Bdrm apartment</t>
-  </si>
-  <si>
-    <t>1 BEDROOM IN THE HEART OF ARVADA BETWEEN THE ROCKIES AND DENVER</t>
-  </si>
-  <si>
-    <t>Package Service, Arapahoe Light Rail, Stainless Steel Appliances</t>
-  </si>
-  <si>
-    <t>Garden Tub, Air Conditioning, Vaulted Ceilings</t>
-  </si>
-  <si>
-    <t>Amazing Opportunity To Be in City Park For Spring! 2/2</t>
-  </si>
-  <si>
-    <t>2 Bed/2 Bath, Elegant granite countertops, Paw spa</t>
-  </si>
-  <si>
-    <t>Country Home on Acreage, in city~</t>
-  </si>
-  <si>
-    <t>** Garage Parking Included + HUGE Terrace in Cheesman Park **</t>
-  </si>
-  <si>
-    <t>$1300 / 2br - 1100ft2 - 2 Bed 1.5 Bath</t>
-  </si>
-  <si>
-    <t>Free February Rent @ Loretto Heights</t>
-  </si>
-  <si>
-    <t>Aplication fee waived! Get on waiting list for 1bd/1b</t>
-  </si>
-  <si>
-    <t>Close to DU 1 BR avail in June!</t>
-  </si>
-  <si>
-    <t>Renovated, Patio, 1st Month Free Rent!</t>
-  </si>
-  <si>
-    <t>Bike storage, Pet-friendly community, Urban clubhouse with cyber cafe</t>
-  </si>
-  <si>
-    <t>Courtyard, Balcony, Clubhouse</t>
-  </si>
-  <si>
-    <t>Newly Remodeled 3 BR Near DU Available 9/4/2017!</t>
-  </si>
-  <si>
-    <t>Call and ask how to get $500 off move-in and a $99 admin Fee</t>
-  </si>
-  <si>
-    <t>Walk-In Closets, Englewood and Cherry Creek Schools, Package Service</t>
-  </si>
-  <si>
-    <t>Newly Updated, Spacious 1BD Condo in Capitol Hill, Great Location!</t>
-  </si>
-  <si>
-    <t>2BD, 2BA Denver Home with Office and Deck! $300 OFF 1st MONTH'S RENT!!</t>
-  </si>
-  <si>
-    <t>3BD, 3BA for Rent in Englewood with Private, Fenced Yard!</t>
-  </si>
-  <si>
-    <t>Remodeled 3BD, 2BA Denver Home with  Patio and Outdoor Fireplace!</t>
-  </si>
-  <si>
-    <t>1BD, 1BA Cherry Creek Condo with Private Balcony! $250 OFF 1ST MONTH!</t>
-  </si>
-  <si>
-    <t>Spacious paired home in Castle Pines North</t>
-  </si>
-  <si>
-    <t>3BD, 3BA Home in Highlands Ranch With Office Space, Garage, and Yard!</t>
-  </si>
-  <si>
-    <t>PRICE REDUCED!!!  Beautiful Ranch Patio</t>
-  </si>
-  <si>
-    <t>4 bedroom, 2 bath home in central Evergreen</t>
-  </si>
-  <si>
-    <t>Brook Forest on the Stream</t>
-  </si>
-  <si>
-    <t>Magnificent two bedroom with an amazing view! Tour today!</t>
-  </si>
-  <si>
-    <t>Duplex for rent</t>
-  </si>
-  <si>
-    <t>Enjoy your new home on the 36th floor, amazing view to the mountains!</t>
-  </si>
-  <si>
-    <t>Enjoy this Modern Luxury Apartment in North Capitol Hill</t>
-  </si>
-  <si>
-    <t>2 bedroom - Stainless steel appliances, Hardwood floors, Salt Water Pool</t>
-  </si>
-  <si>
-    <t>2 Br First floor apartment near City Park Avail FREE PARKING!</t>
-  </si>
-  <si>
-    <t>1 Month Free And Luxury Apartments That Will Knock Your Socks Off!!!</t>
-  </si>
-  <si>
-    <t>Business Center, Basketball Court, Vaulted Ceilings</t>
-  </si>
-  <si>
-    <t>MOOOOVE IN TODAY!</t>
-  </si>
-  <si>
-    <t>Ranch style house for rent in Aurora</t>
-  </si>
-  <si>
-    <t>GREAT 1X1 - AVAILABLE NOW!! PERFECT LOCATION!!</t>
-  </si>
-  <si>
-    <t>Business Center, Outdoor Grilling Area, Walk to Fenced in Dog Park</t>
-  </si>
-  <si>
-    <t>Love Where You Live And Save Big With These Sweet Deals! &lt;3 &lt;3</t>
-  </si>
-  <si>
-    <t>2 bedroom - Pool w/ Sundeck and Grilling Area, Movie Theater, Blinds</t>
-  </si>
-  <si>
-    <t>Leasing Now, Quartz Countertops, Ceiling Fan</t>
-  </si>
-  <si>
-    <t>Gorgeous Two Bed @ Mulberry Flats!! MAY 2017</t>
-  </si>
-  <si>
-    <t>Fall In Love With Arista Uptown! With One Month Free You Cant Resist!</t>
-  </si>
-  <si>
-    <t>Stylish Features, Walk In Closets, Chef Inspired Kitchen</t>
-  </si>
-  <si>
-    <t>We Just Sweetened The Deal With These Insane Specials! Don't Miss Them</t>
-  </si>
-  <si>
-    <t>2 Bed/2 Bath, Stainless steel double sinks, Cut Berber carpeting</t>
-  </si>
-  <si>
-    <t>Come Check Out This Unique Studio!</t>
-  </si>
-  <si>
-    <t>New Fitness On Demand System, Two Renovated Fitness Centers, Courtyard</t>
-  </si>
-  <si>
-    <t>Make Your Home Where Your Pets Will Love It Too! &lt;3&lt;3</t>
-  </si>
-  <si>
-    <t>Fantastic 1 Bedroom in Cap. Hill/Cheesman Area! Great Price at $1149!</t>
-  </si>
-  <si>
-    <t>Wi-Fi access throughout common areas, Kitchen pantries, Bike storage</t>
-  </si>
-  <si>
-    <t>Two Hot Tubs, Business Center with WiFi, Key Fob Access to Amenities</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:30</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:29</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:27</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:23</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:17</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:12</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:09</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:08</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:04</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:03</t>
-  </si>
-  <si>
-    <t>2017-02-20 20:02</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:56</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:55</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:52</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:48</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:47</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:46</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:45</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:44</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:43</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:42</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:41</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:39</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:37</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:36</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:33</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:32</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:31</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:28</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:25</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:21</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:20</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:16</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:15</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:14</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:11</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:10</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:09</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:06</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:03</t>
-  </si>
-  <si>
-    <t>2017-02-20 19:02</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:59</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:58</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:57</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:56</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:55</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:53</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:51</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:49</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:48</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:45</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:42</t>
-  </si>
-  <si>
-    <t>2017-02-20 18:41</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5982939642.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6004191522.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5992857207.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5974170246.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5998652627.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5998165201.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012694368.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012688833.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012671518.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5995589088.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6009701108.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5996260334.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6009645065.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6003660798.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5985596944.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6003935914.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012669204.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012657217.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6005168256.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5971539008.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987829974.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993181182.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5995171805.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987813125.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5974377881.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987796545.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5995821686.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5994740851.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987779145.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987775677.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987772073.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987760955.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993169854.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987755736.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993176792.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987758642.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993173177.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987738776.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5981877490.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993175154.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012649393.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987737010.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987718535.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5987716081.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5991787366.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012639829.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012645970.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6009722398.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6009579520.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6006764886.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5981883974.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6001986574.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012646530.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012638981.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993510608.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012629198.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012634384.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012629150.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6006848553.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6006802214.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5986281018.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012613718.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6006721630.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5997963380.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993532133.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5991121530.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5976871517.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6006225667.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5988271753.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012627253.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6003310707.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012610980.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6007391816.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6005146606.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5989729915.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012621278.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5989552572.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012595674.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5977685360.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012596255.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6002610640.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6006842879.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5972672827.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975702874.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6006711423.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6009646400.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6002591849.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6005106120.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012604245.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012579077.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5986916261.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012603781.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5986912512.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012599778.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6006819519.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6003913675.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6002593490.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5986608679.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6009696862.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012589714.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5982939642</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6004191522</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5992857207</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5974170246</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5998652627</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5998165201</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012694368</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012688833</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012671518</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5995589088</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6009701108</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5996260334</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6009645065</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6003660798</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5985596944</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6003935914</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012669204</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012657217</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6005168256</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5971539008</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987829974</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993181182</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5995171805</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987813125</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5974377881</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987796545</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5995821686</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5994740851</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987779145</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987775677</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987772073</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987760955</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993169854</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987755736</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993176792</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987758642</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993173177</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987738776</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5981877490</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993175154</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012649393</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987737010</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987718535</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5987716081</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5991787366</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012639829</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012645970</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6009722398</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6009579520</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6006764886</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5981883974</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6001986574</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012646530</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012638981</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993510608</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012629198</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012634384</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012629150</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6006848553</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6006802214</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5986281018</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012613718</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6006721630</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5997963380</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993532133</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5991121530</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5976871517</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6006225667</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5988271753</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012627253</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6003310707</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012610980</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6007391816</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6005146606</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5989729915</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012621278</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5989552572</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012595674</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5977685360</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012596255</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6002610640</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6006842879</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5972672827</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975702874</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6006711423</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6009646400</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6002591849</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6005106120</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012604245</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012579077</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5986916261</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012603781</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5986912512</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012599778</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6006819519</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6003913675</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6002593490</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5986608679</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6009696862</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012589714</t>
+    <t>2 Bed/1 Bath Highlands Apt - Available Now NO SECURITY DEPOSIT!</t>
+  </si>
+  <si>
+    <t>Two Hot Tubs, Wood-burning Fireplace in select homes, Walk-In Closets</t>
+  </si>
+  <si>
+    <t>Air Conditioner, Online Payments Available, Skylight</t>
+  </si>
+  <si>
+    <t>2 Months FREE RENT - Downtown 5 min to Cherry Creek Union Station Lodo Lohi - HU</t>
+  </si>
+  <si>
+    <t>Updater Moving Partner, 24-Hour Fitness Center, Basketball Court</t>
+  </si>
+  <si>
+    <t>2 BEDROOMS, MOUNTAIN VIEWS, W/D IN UNIT, BALCONIES, OLDE TOWN ARVADA</t>
+  </si>
+  <si>
+    <t>14th Floor STUNNING VIEWS  - 2 Months FREE RENT - Downtown 5 min to Cherry Creek</t>
+  </si>
+  <si>
+    <t>2 Bed - 2 Bath, On-Site Maintenance, Spa</t>
+  </si>
+  <si>
+    <t>Reserved Carports Available, In-Home Washer and Dryer, 9 Foot Ceilings</t>
+  </si>
+  <si>
+    <t>State-of-the-art fitness center, Networked business center, Paw spa</t>
+  </si>
+  <si>
+    <t>Cut Berber carpeting, Built-in microwaves, Kitchen pantries</t>
+  </si>
+  <si>
+    <t>River North Loft for Rent (Taxi II Bldg.)</t>
+  </si>
+  <si>
+    <t>Very nice 2/2/1 car garage</t>
+  </si>
+  <si>
+    <t>Rent this Home in Highlands Ranch</t>
+  </si>
+  <si>
+    <t>Island Kitchens, One Mile to Cherry Creek Reservoir, Package Service</t>
+  </si>
+  <si>
+    <t>Ranch house in South Aurora for Rent</t>
+  </si>
+  <si>
+    <t>Crown Molding, Air Conditioning, Basketball Court</t>
+  </si>
+  <si>
+    <t>24-Hour Fitness Center with Yoga Space, Two Hot Tubs, 9 Foot Ceilings</t>
+  </si>
+  <si>
+    <t>Relocating to Denver, CO? Who isn't! Reach out for Professional Help**</t>
+  </si>
+  <si>
+    <t>** Best Neighborhoods For Food, Wine, Happy Hour &amp; Brunch **</t>
+  </si>
+  <si>
+    <t>Specials? YES! - Private Garage Option? YES! - Hardwood, Granite</t>
+  </si>
+  <si>
+    <t>**BEST Gyms** BEST Specials** BEST Locations**</t>
+  </si>
+  <si>
+    <t>** Whose Super Pet Friendly Denver **</t>
+  </si>
+  <si>
+    <t>**Help Renting a High Rise in Denver**</t>
+  </si>
+  <si>
+    <t>1 bedroom - Dishwasher, Stainless Steel Appliances, Movie Theater</t>
+  </si>
+  <si>
+    <t>Highrise Luxury "The Barclay"</t>
+  </si>
+  <si>
+    <t>Cable/Satellite, Pool, Laundry Facility</t>
+  </si>
+  <si>
+    <t>Stainless steel appliances, Yoga Studio, High Ceilings</t>
+  </si>
+  <si>
+    <t>Available now - smoke free ranch townhouse w/ 2 car attached gar</t>
+  </si>
+  <si>
+    <t>3 beds 1 bath 971 sqft</t>
+  </si>
+  <si>
+    <t>DU/Observatory Park/Southeast Denver</t>
+  </si>
+  <si>
+    <t>Window Coverings, Pool, Dishwasher</t>
+  </si>
+  <si>
+    <t>Swimming Pool, 24-Hour Fitness Center, Business Center</t>
+  </si>
+  <si>
+    <t>LARGE 2 BEDROOM 1167 SQ FT GET YOURS TODAY BEFORE THEY'RE GONE</t>
+  </si>
+  <si>
+    <t>Great Specials...Don't Miss Out!</t>
+  </si>
+  <si>
+    <t>Playground, Easy Access to I-25 and E-470, Updater Moving Partner</t>
+  </si>
+  <si>
+    <t>Bike storage, Cut Berber carpeting, Stainless steel double sinks</t>
+  </si>
+  <si>
+    <t>South Aurora near Quincy Reservoir</t>
+  </si>
+  <si>
+    <t>White Shaker Cabinets, Fitness Center, Clubhouse</t>
+  </si>
+  <si>
+    <t>Pool, Cable/Satellite, Public Transportation</t>
+  </si>
+  <si>
+    <t>1 Bed/1 Bath, Cyber café with computer stations and Wi-Fi, Paw spa</t>
+  </si>
+  <si>
+    <t>Air Conditioning, Englewood and Cherry Creek Schools, Private Balcony</t>
+  </si>
+  <si>
+    <t>City Park Cheeseman Park 5 min to Downtown Uptown $500 OFF City Park Cheesman</t>
+  </si>
+  <si>
+    <t>City Park Cheeseman Park PENTHOUSE! 5 min to Downtown Uptown $500 OFF City Park</t>
+  </si>
+  <si>
+    <t>SUPER Luxury! Stunning Views! 2 Months FREE Rent! 5 min to Downtown Cherry Creek</t>
+  </si>
+  <si>
+    <t>Golden Triangle Downtown - 2 Months FREE Rent - Super Vip Luxury 5 min to Cherry</t>
+  </si>
+  <si>
+    <t>Golden Triangle Downtown Downtown - 2 Months FREE Rent - 5 min to Cherry creek L</t>
+  </si>
+  <si>
+    <t>FREE Parking - Super Luxury Downtown Capitol Hill Golden Triangle Downtown</t>
+  </si>
+  <si>
+    <t>Best Priced 1x1 in Downtown Capitol Hill / Golden Triangle 5 min to LODO</t>
+  </si>
+  <si>
+    <t>RiNo LODO RiNo LoDo 2x2 - $500 Gift Card - 1 Free Garage Parking Spot {{{{{{{{{{</t>
+  </si>
+  <si>
+    <t>RiNo LODO BEST Deal - 1 Free Parking SPot + $500 Gift Card RiNo LODO Downtown BE</t>
+  </si>
+  <si>
+    <t>Downtowns BEST DEAL ~Corner Unit - 1623 sq ft - LODO Downtown 2.5 Months FREE RE</t>
+  </si>
+  <si>
+    <t>Downtown *Penthouse* LODO 2.5 MONTHS FREE RENT Downtown RiNo Luxury Loft</t>
+  </si>
+  <si>
+    <t>BEST DEAL in Downtown LODO Downtown ~ 2.5 Months FREE Rent ~ Move in TODAY! ~ ~~</t>
+  </si>
+  <si>
+    <t>Downtown Downtown LODO ~ 2.5 Months FREE RENT ~ Walkable Ball Park LODO ~</t>
+  </si>
+  <si>
+    <t>DOWNTOWN 2.5 Months FREE RENT ~1008 Sq FT HUGE ~ Ball Park LODO Downtown RINO ~</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:55</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:51</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:49</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:48</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:46</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:45</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:41</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:40</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:38</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:36</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:33</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:32</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:29</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:28</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:25</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:24</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:22</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:21</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:17</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:10</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:09</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:07</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:05</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:04</t>
+  </si>
+  <si>
+    <t>2017-02-21 07:02</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:58</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:57</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:49</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:46</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:45</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:42</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:41</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:40</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:30</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:28</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:26</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:25</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:23</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:20</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:15</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:14</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:12</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:10</t>
+  </si>
+  <si>
+    <t>2017-02-21 06:05</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:54</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:49</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:48</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:28</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:23</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:20</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:11</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:06</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:04</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:00</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:51</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:26</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:24</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:23</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:13</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:03</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:00</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:53</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:52</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:44</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:43</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5992173352.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013083903.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013083695.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5992114916.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013078674.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013074964.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013074379.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5988595990.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013070919.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013056564.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013069435.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5995604129.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013061992.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6005969399.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6002165820.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5981739643.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5984481871.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013036627.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5996396585.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6004831131.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6003443254.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008751511.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5999233177.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6003084143.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5972790522.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013039200.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5983353652.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5976262518.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012967633.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008221018.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5993284495.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6013006982.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5993076241.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6001295647.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012997988.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012993425.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012997195.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012994529.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5996890002.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012996022.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012992837.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5993751807.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5992610616.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012981626.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5976251481.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6007653009.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012970647.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6009066234.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5993526526.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5999368623.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5994893408.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012967129.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012966869.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6005476191.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008282192.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5994911627.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5993578719.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5993313602.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6007866780.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6004580940.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008362809.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5991832955.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5991831735.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6007667718.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6003922371.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012933230.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6002057067.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5984897215.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5979225504.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6001489658.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5995953119.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012912709.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6012920700.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5972553619.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008328084.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6004756056.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6009117906.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5973586324.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5993893511.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5994903645.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008999208.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5977662793.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6003857251.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5994000059.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5980209195.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5980215960.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5980153717.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5980194013.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5980129391.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5980115825.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975673776.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975686048.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975660639.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975635155.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975646342.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975608204.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975621734.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975594630.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975565597.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975579061.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5992173352</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013083903</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013083695</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5992114916</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013078674</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013074964</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013074379</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5988595990</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013070919</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013056564</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013069435</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5995604129</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013061992</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6005969399</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6002165820</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5981739643</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5984481871</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013036627</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5996396585</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6004831131</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6003443254</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008751511</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5999233177</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6003084143</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5972790522</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013039200</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5983353652</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5976262518</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012967633</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008221018</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5993284495</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6013006982</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5993076241</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6001295647</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012997988</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012993425</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012997195</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012994529</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5996890002</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012996022</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012992837</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5993751807</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5992610616</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012981626</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5976251481</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6007653009</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012970647</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6009066234</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5993526526</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5999368623</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5994893408</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012967129</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012966869</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6005476191</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008282192</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5994911627</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5993578719</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5993313602</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6007866780</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6004580940</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008362809</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5991832955</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5991831735</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6007667718</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6003922371</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012933230</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6002057067</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5984897215</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5979225504</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6001489658</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5995953119</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012912709</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6012920700</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5972553619</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008328084</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6004756056</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6009117906</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5973586324</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5993893511</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5994903645</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008999208</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5977662793</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6003857251</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5994000059</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5980209195</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5980215960</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5980153717</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5980194013</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5980129391</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5980115825</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975673776</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975686048</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975660639</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975635155</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975646342</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975608204</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975621734</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975594630</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975565597</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975579061</t>
   </si>
 </sst>
 </file>
@@ -1806,22 +1830,22 @@
         <v>108</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>861</v>
+        <v>1050</v>
       </c>
       <c r="F2">
-        <v>1495</v>
+        <v>1100</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1835,22 +1859,22 @@
         <v>109</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>1134</v>
+        <v>1788</v>
       </c>
       <c r="F3">
-        <v>1820</v>
+        <v>1875</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1864,22 +1888,22 @@
         <v>110</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>705</v>
+        <v>1380</v>
       </c>
       <c r="F4">
-        <v>1399</v>
+        <v>2100</v>
       </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1896,19 +1920,19 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>999</v>
+        <v>1560</v>
       </c>
       <c r="F5">
-        <v>2025</v>
+        <v>1825</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1922,22 +1946,22 @@
         <v>112</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>712</v>
+        <v>1500</v>
       </c>
       <c r="F6">
-        <v>1619</v>
+        <v>1950</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1954,19 +1978,19 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>816</v>
+        <v>715</v>
       </c>
       <c r="F7">
-        <v>1495</v>
+        <v>1303</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1983,19 +2007,19 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>900</v>
+        <v>1029</v>
       </c>
       <c r="F8">
-        <v>1200</v>
+        <v>2575</v>
       </c>
       <c r="G8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2009,22 +2033,22 @@
         <v>115</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>673</v>
       </c>
       <c r="F9">
-        <v>1250</v>
+        <v>1270</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2038,22 +2062,22 @@
         <v>116</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="F10">
-        <v>2695</v>
+        <v>1425</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2070,19 +2094,19 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>1032</v>
+        <v>1720</v>
       </c>
       <c r="F11">
-        <v>1342</v>
+        <v>3375</v>
       </c>
       <c r="G11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2096,22 +2120,19 @@
         <v>118</v>
       </c>
       <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1496</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1955</v>
+        <v>1295</v>
       </c>
       <c r="G12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2125,22 +2146,22 @@
         <v>119</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>736</v>
+        <v>940</v>
       </c>
       <c r="F13">
-        <v>1165</v>
+        <v>2100</v>
       </c>
       <c r="G13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2154,22 +2175,19 @@
         <v>120</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>1155</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>1864</v>
+        <v>2395</v>
       </c>
       <c r="G14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2183,22 +2201,22 @@
         <v>121</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="F15">
-        <v>1385</v>
+        <v>2100</v>
       </c>
       <c r="G15" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2212,22 +2230,22 @@
         <v>122</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1031</v>
+        <v>777</v>
       </c>
       <c r="F16">
-        <v>1450</v>
+        <v>1295</v>
       </c>
       <c r="G16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2244,19 +2262,19 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>1005</v>
+        <v>1716</v>
       </c>
       <c r="F17">
-        <v>1399</v>
+        <v>2995</v>
       </c>
       <c r="G17" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2270,22 +2288,22 @@
         <v>124</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>880</v>
+        <v>1436</v>
       </c>
       <c r="F18">
-        <v>1240</v>
+        <v>1800</v>
       </c>
       <c r="G18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2299,22 +2317,22 @@
         <v>125</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1470</v>
+        <v>944</v>
       </c>
       <c r="F19">
-        <v>3995</v>
+        <v>1550</v>
       </c>
       <c r="G19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2331,19 +2349,19 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1014</v>
+        <v>751</v>
       </c>
       <c r="F20">
-        <v>2200</v>
+        <v>1293</v>
       </c>
       <c r="G20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2357,22 +2375,22 @@
         <v>127</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>950</v>
+        <v>1783</v>
       </c>
       <c r="F21">
-        <v>1550</v>
+        <v>2142</v>
       </c>
       <c r="G21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2386,22 +2404,22 @@
         <v>128</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>680</v>
+        <v>2250</v>
       </c>
       <c r="F22">
-        <v>1674</v>
+        <v>1150</v>
       </c>
       <c r="G22" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2415,22 +2433,19 @@
         <v>129</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>704</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1595</v>
+        <v>1100</v>
       </c>
       <c r="G23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2444,22 +2459,19 @@
         <v>130</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>833</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>1345</v>
+        <v>1725</v>
       </c>
       <c r="G24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2473,22 +2485,22 @@
         <v>131</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>593</v>
+        <v>2400</v>
       </c>
       <c r="F25">
-        <v>1660</v>
+        <v>2100</v>
       </c>
       <c r="G25" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2502,22 +2514,19 @@
         <v>132</v>
       </c>
       <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1307</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>1495</v>
+        <v>3200</v>
       </c>
       <c r="G26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2531,22 +2540,22 @@
         <v>133</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>619</v>
+        <v>1361</v>
       </c>
       <c r="F27">
-        <v>1715</v>
+        <v>2458</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2560,22 +2569,22 @@
         <v>134</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1140</v>
+        <v>680</v>
       </c>
       <c r="F28">
-        <v>1650</v>
+        <v>1050</v>
       </c>
       <c r="G28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2589,22 +2598,22 @@
         <v>135</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>2226</v>
+        <v>516</v>
       </c>
       <c r="F29">
-        <v>1845</v>
+        <v>1683</v>
       </c>
       <c r="G29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2618,22 +2627,22 @@
         <v>136</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>669</v>
+        <v>3100</v>
       </c>
       <c r="F30">
-        <v>1339</v>
+        <v>1400</v>
       </c>
       <c r="G30" t="s">
         <v>223</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2650,19 +2659,19 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>684</v>
+        <v>793</v>
       </c>
       <c r="F31">
-        <v>2070</v>
+        <v>1334</v>
       </c>
       <c r="G31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2676,22 +2685,22 @@
         <v>138</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>1429</v>
+        <v>1800</v>
       </c>
       <c r="F32">
-        <v>1870</v>
+        <v>2250</v>
       </c>
       <c r="G32" t="s">
         <v>224</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2705,22 +2714,22 @@
         <v>139</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>708</v>
+        <v>1143</v>
       </c>
       <c r="F33">
-        <v>1744</v>
+        <v>2333</v>
       </c>
       <c r="G33" t="s">
         <v>225</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2734,22 +2743,19 @@
         <v>140</v>
       </c>
       <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>1040</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>2215</v>
+        <v>3250</v>
       </c>
       <c r="G34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2763,22 +2769,22 @@
         <v>141</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>706</v>
+        <v>2200</v>
       </c>
       <c r="F35">
-        <v>1407</v>
+        <v>2195</v>
       </c>
       <c r="G35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2792,22 +2798,22 @@
         <v>142</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
-        <v>517</v>
+        <v>2200</v>
       </c>
       <c r="F36">
-        <v>1326</v>
+        <v>2200</v>
       </c>
       <c r="G36" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2824,19 +2830,19 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>1180</v>
+        <v>1017</v>
       </c>
       <c r="F37">
-        <v>2190</v>
+        <v>2000</v>
       </c>
       <c r="G37" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2853,19 +2859,19 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>704</v>
+        <v>560</v>
       </c>
       <c r="F38">
-        <v>1770</v>
+        <v>1050</v>
       </c>
       <c r="G38" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2882,19 +2888,19 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>1222</v>
+        <v>1138</v>
       </c>
       <c r="F39">
-        <v>1435</v>
+        <v>2000</v>
       </c>
       <c r="G39" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2908,22 +2914,19 @@
         <v>146</v>
       </c>
       <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>1116</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>1969</v>
+        <v>2050</v>
       </c>
       <c r="G40" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2937,22 +2940,22 @@
         <v>147</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>640</v>
+        <v>900</v>
       </c>
       <c r="F41">
-        <v>1615</v>
+        <v>1200</v>
       </c>
       <c r="G41" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2969,19 +2972,19 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>1027</v>
+        <v>875</v>
       </c>
       <c r="F42">
-        <v>1495</v>
+        <v>1700</v>
       </c>
       <c r="G42" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2998,19 +3001,19 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="F43">
-        <v>1472</v>
+        <v>1345</v>
       </c>
       <c r="G43" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3024,22 +3027,22 @@
         <v>150</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>1078</v>
+        <v>673</v>
       </c>
       <c r="F44">
-        <v>1530</v>
+        <v>1270</v>
       </c>
       <c r="G44" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3053,22 +3056,22 @@
         <v>151</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>742</v>
+        <v>1143</v>
       </c>
       <c r="F45">
-        <v>1273</v>
+        <v>2333</v>
       </c>
       <c r="G45" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3085,19 +3088,19 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>730</v>
+        <v>687</v>
       </c>
       <c r="F46">
-        <v>1279</v>
+        <v>1005</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3111,22 +3114,22 @@
         <v>153</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>950</v>
+        <v>1093</v>
       </c>
       <c r="F47">
-        <v>1395</v>
+        <v>1844</v>
       </c>
       <c r="G47" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3143,19 +3146,19 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>1000</v>
+        <v>1143</v>
       </c>
       <c r="F48">
-        <v>1625</v>
+        <v>2437</v>
       </c>
       <c r="G48" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3169,22 +3172,22 @@
         <v>155</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>718</v>
+        <v>1034</v>
       </c>
       <c r="F49">
-        <v>1305</v>
+        <v>1490</v>
       </c>
       <c r="G49" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3198,22 +3201,22 @@
         <v>156</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>1330</v>
+        <v>1005</v>
       </c>
       <c r="F50">
-        <v>2001</v>
+        <v>1445</v>
       </c>
       <c r="G50" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3230,19 +3233,19 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>820</v>
+        <v>759</v>
       </c>
       <c r="F51">
-        <v>1418</v>
+        <v>1636</v>
       </c>
       <c r="G51" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3256,22 +3259,22 @@
         <v>158</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>1033</v>
+        <v>1082</v>
       </c>
       <c r="F52">
-        <v>1890</v>
+        <v>1705</v>
       </c>
       <c r="G52" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3288,19 +3291,19 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <v>1106</v>
+        <v>1272</v>
       </c>
       <c r="F53">
-        <v>2450</v>
+        <v>2250</v>
       </c>
       <c r="G53" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3314,19 +3317,19 @@
         <v>160</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>3500</v>
+        <v>1450</v>
       </c>
       <c r="G54" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3340,22 +3343,19 @@
         <v>161</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>715</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>1725</v>
+        <v>3500</v>
       </c>
       <c r="G55" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3369,22 +3369,22 @@
         <v>162</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1100</v>
+        <v>796</v>
       </c>
       <c r="F56">
-        <v>1300</v>
+        <v>1258</v>
       </c>
       <c r="G56" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3398,22 +3398,22 @@
         <v>163</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57">
-        <v>966</v>
+        <v>1174</v>
       </c>
       <c r="F57">
-        <v>1449</v>
+        <v>1750</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3430,19 +3430,19 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>800</v>
+        <v>687</v>
       </c>
       <c r="F58">
-        <v>1358</v>
+        <v>1062</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3459,19 +3459,19 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F59">
-        <v>1100</v>
+        <v>1232</v>
       </c>
       <c r="G59" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3485,22 +3485,19 @@
         <v>166</v>
       </c>
       <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>1400</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1615</v>
+        <v>1700</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3516,20 +3513,17 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61">
-        <v>756</v>
-      </c>
       <c r="F61">
-        <v>1399</v>
+        <v>1690</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3543,22 +3537,19 @@
         <v>168</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>680</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>1095</v>
+        <v>2300</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3572,22 +3563,19 @@
         <v>169</v>
       </c>
       <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63">
-        <v>1600</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>2550</v>
+        <v>2290</v>
       </c>
       <c r="G63" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3601,22 +3589,19 @@
         <v>170</v>
       </c>
       <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>1191</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1675</v>
+        <v>1700</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3633,19 +3618,19 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>833</v>
+        <v>950</v>
       </c>
       <c r="F65">
-        <v>1308</v>
+        <v>2200</v>
       </c>
       <c r="G65" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3662,19 +3647,19 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>718</v>
+        <v>826</v>
       </c>
       <c r="F66">
-        <v>1180</v>
+        <v>1405</v>
       </c>
       <c r="G66" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3688,22 +3673,19 @@
         <v>173</v>
       </c>
       <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>1400</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>2220</v>
+        <v>1675</v>
       </c>
       <c r="G67" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3714,22 +3696,25 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>751</v>
       </c>
       <c r="F68">
-        <v>1780</v>
+        <v>1246</v>
       </c>
       <c r="G68" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3740,25 +3725,25 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69">
-        <v>1024</v>
+        <v>871</v>
       </c>
       <c r="F69">
-        <v>2150</v>
+        <v>1150</v>
       </c>
       <c r="G69" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3769,25 +3754,25 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>822</v>
+        <v>516</v>
       </c>
       <c r="F70">
-        <v>1600</v>
+        <v>1683</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3798,25 +3783,25 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>2091</v>
+        <v>650</v>
       </c>
       <c r="F71">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="G71" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3827,25 +3812,25 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>1950</v>
+        <v>650</v>
       </c>
       <c r="F72">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="G72" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3856,25 +3841,22 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>2530</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>2050</v>
+        <v>1350</v>
       </c>
       <c r="G73" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3885,25 +3867,25 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74">
-        <v>1900</v>
+        <v>995</v>
       </c>
       <c r="F74">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="G74" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3914,25 +3896,25 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>900</v>
+        <v>736</v>
       </c>
       <c r="F75">
-        <v>1900</v>
+        <v>1075</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3943,25 +3925,25 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76">
-        <v>1421</v>
+        <v>1040</v>
       </c>
       <c r="F76">
-        <v>2360</v>
+        <v>1503</v>
       </c>
       <c r="G76" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3972,25 +3954,25 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77">
-        <v>900</v>
+        <v>1167</v>
       </c>
       <c r="F77">
-        <v>1200</v>
+        <v>2095</v>
       </c>
       <c r="G77" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4001,25 +3983,25 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>768</v>
+        <v>1100</v>
       </c>
       <c r="F78">
-        <v>1440</v>
+        <v>1485</v>
       </c>
       <c r="G78" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4030,25 +4012,25 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>700</v>
+        <v>922</v>
       </c>
       <c r="F79">
-        <v>1940</v>
+        <v>1248</v>
       </c>
       <c r="G79" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4059,25 +4041,25 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80">
-        <v>1127</v>
+        <v>1184</v>
       </c>
       <c r="F80">
-        <v>1845</v>
+        <v>1804</v>
       </c>
       <c r="G80" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4088,25 +4070,25 @@
         <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>900</v>
+        <v>1372</v>
       </c>
       <c r="F81">
-        <v>1595</v>
+        <v>1795</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4117,25 +4099,25 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>1092</v>
+        <v>762</v>
       </c>
       <c r="F82">
-        <v>1466</v>
+        <v>1219</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4146,25 +4128,25 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83">
-        <v>922</v>
+        <v>871</v>
       </c>
       <c r="F83">
-        <v>1430</v>
+        <v>1150</v>
       </c>
       <c r="G83" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4175,25 +4157,25 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>688</v>
+        <v>755</v>
       </c>
       <c r="F84">
-        <v>1345</v>
+        <v>1696</v>
       </c>
       <c r="G84" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4204,25 +4186,25 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>1174</v>
+        <v>833</v>
       </c>
       <c r="F85">
-        <v>1750</v>
+        <v>1345</v>
       </c>
       <c r="G85" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4233,7 +4215,7 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4242,16 +4224,16 @@
         <v>715</v>
       </c>
       <c r="F86">
-        <v>1084</v>
+        <v>1660</v>
       </c>
       <c r="G86" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4262,25 +4244,25 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>652</v>
+        <v>995</v>
       </c>
       <c r="F87">
-        <v>1384</v>
+        <v>2410</v>
       </c>
       <c r="G87" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4291,25 +4273,25 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88">
-        <v>1092</v>
+        <v>1209</v>
       </c>
       <c r="F88">
-        <v>1466</v>
+        <v>2354</v>
       </c>
       <c r="G88" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4320,25 +4302,25 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89">
-        <v>968</v>
+        <v>1720</v>
       </c>
       <c r="F89">
-        <v>1599</v>
+        <v>3250</v>
       </c>
       <c r="G89" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4349,25 +4331,25 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="F90">
-        <v>2105</v>
+        <v>2375</v>
       </c>
       <c r="G90" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4378,25 +4360,25 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91">
-        <v>800</v>
+        <v>1143</v>
       </c>
       <c r="F91">
-        <v>1595</v>
+        <v>2375</v>
       </c>
       <c r="G91" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4407,25 +4389,25 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92">
-        <v>1092</v>
+        <v>1000</v>
       </c>
       <c r="F92">
-        <v>1466</v>
+        <v>2025</v>
       </c>
       <c r="G92" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4436,25 +4418,25 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>866</v>
+        <v>1000</v>
       </c>
       <c r="F93">
-        <v>1620</v>
+        <v>2025</v>
       </c>
       <c r="G93" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4465,25 +4447,25 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>1092</v>
+        <v>523</v>
       </c>
       <c r="F94">
-        <v>1466</v>
+        <v>1365</v>
       </c>
       <c r="G94" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4494,25 +4476,25 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95">
-        <v>1184</v>
+        <v>1071</v>
       </c>
       <c r="F95">
-        <v>1775</v>
+        <v>2059</v>
       </c>
       <c r="G95" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4523,25 +4505,25 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>757</v>
+        <v>685</v>
       </c>
       <c r="F96">
-        <v>1550</v>
+        <v>1414</v>
       </c>
       <c r="G96" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4552,25 +4534,25 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97">
-        <v>950</v>
+        <v>1623</v>
       </c>
       <c r="F97">
-        <v>1299</v>
+        <v>2189</v>
       </c>
       <c r="G97" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4581,25 +4563,25 @@
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98">
-        <v>1092</v>
+        <v>1879</v>
       </c>
       <c r="F98">
-        <v>1466</v>
+        <v>3847</v>
       </c>
       <c r="G98" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4610,22 +4592,25 @@
         <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>1136</v>
       </c>
       <c r="F99">
-        <v>1149</v>
+        <v>1939</v>
       </c>
       <c r="G99" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4636,25 +4621,25 @@
         <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>1184</v>
+        <v>700</v>
       </c>
       <c r="F100">
-        <v>1770</v>
+        <v>1428</v>
       </c>
       <c r="G100" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4665,22 +4650,25 @@
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1008</v>
       </c>
       <c r="F101">
-        <v>1488</v>
+        <v>1666</v>
       </c>
       <c r="G101" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/CL_scraper/output/Example Listing Pull for Denver 2-20-17.xlsx
+++ b/CL_scraper/output/Example Listing Pull for Denver 2-20-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="493">
   <si>
     <t>posting_ID</t>
   </si>
@@ -40,1387 +40,1459 @@
     <t>Reply_contact_info_link</t>
   </si>
   <si>
-    <t>5992173352</t>
-  </si>
-  <si>
-    <t>6013083903</t>
-  </si>
-  <si>
-    <t>6013083695</t>
-  </si>
-  <si>
-    <t>5992114916</t>
-  </si>
-  <si>
-    <t>6013078674</t>
-  </si>
-  <si>
-    <t>6013074964</t>
-  </si>
-  <si>
-    <t>6013074379</t>
-  </si>
-  <si>
-    <t>5988595990</t>
-  </si>
-  <si>
-    <t>6013070919</t>
-  </si>
-  <si>
-    <t>6013056564</t>
-  </si>
-  <si>
-    <t>6013069435</t>
-  </si>
-  <si>
-    <t>5995604129</t>
-  </si>
-  <si>
-    <t>6013061992</t>
-  </si>
-  <si>
-    <t>6005969399</t>
-  </si>
-  <si>
-    <t>6002165820</t>
-  </si>
-  <si>
-    <t>5981739643</t>
-  </si>
-  <si>
-    <t>5984481871</t>
-  </si>
-  <si>
-    <t>6013036627</t>
-  </si>
-  <si>
-    <t>5996396585</t>
-  </si>
-  <si>
-    <t>6004831131</t>
-  </si>
-  <si>
-    <t>6003443254</t>
-  </si>
-  <si>
-    <t>6008751511</t>
-  </si>
-  <si>
-    <t>5999233177</t>
-  </si>
-  <si>
-    <t>6003084143</t>
-  </si>
-  <si>
-    <t>5972790522</t>
-  </si>
-  <si>
-    <t>6013039200</t>
-  </si>
-  <si>
-    <t>5983353652</t>
-  </si>
-  <si>
-    <t>5976262518</t>
-  </si>
-  <si>
-    <t>6012967633</t>
-  </si>
-  <si>
-    <t>6008221018</t>
-  </si>
-  <si>
-    <t>5993284495</t>
-  </si>
-  <si>
-    <t>6013006982</t>
-  </si>
-  <si>
-    <t>5993076241</t>
-  </si>
-  <si>
-    <t>6001295647</t>
-  </si>
-  <si>
-    <t>6012997988</t>
-  </si>
-  <si>
-    <t>6012993425</t>
-  </si>
-  <si>
-    <t>6012997195</t>
-  </si>
-  <si>
-    <t>6012994529</t>
-  </si>
-  <si>
-    <t>5996890002</t>
-  </si>
-  <si>
-    <t>6012996022</t>
-  </si>
-  <si>
-    <t>6012992837</t>
-  </si>
-  <si>
-    <t>5993751807</t>
-  </si>
-  <si>
-    <t>5992610616</t>
-  </si>
-  <si>
-    <t>6012981626</t>
-  </si>
-  <si>
-    <t>5976251481</t>
-  </si>
-  <si>
-    <t>6007653009</t>
-  </si>
-  <si>
-    <t>6012970647</t>
-  </si>
-  <si>
-    <t>6009066234</t>
-  </si>
-  <si>
-    <t>5993526526</t>
-  </si>
-  <si>
-    <t>5999368623</t>
-  </si>
-  <si>
-    <t>5994893408</t>
-  </si>
-  <si>
-    <t>6012967129</t>
-  </si>
-  <si>
-    <t>6012966869</t>
-  </si>
-  <si>
-    <t>6005476191</t>
-  </si>
-  <si>
-    <t>6008282192</t>
-  </si>
-  <si>
-    <t>5994911627</t>
-  </si>
-  <si>
-    <t>5993578719</t>
-  </si>
-  <si>
-    <t>5993313602</t>
-  </si>
-  <si>
-    <t>6007866780</t>
-  </si>
-  <si>
-    <t>6004580940</t>
-  </si>
-  <si>
-    <t>6008362809</t>
-  </si>
-  <si>
-    <t>5991832955</t>
-  </si>
-  <si>
-    <t>5991831735</t>
-  </si>
-  <si>
-    <t>6007667718</t>
-  </si>
-  <si>
-    <t>6003922371</t>
-  </si>
-  <si>
-    <t>6012933230</t>
-  </si>
-  <si>
-    <t>6002057067</t>
-  </si>
-  <si>
-    <t>5984897215</t>
-  </si>
-  <si>
-    <t>5979225504</t>
-  </si>
-  <si>
-    <t>6001489658</t>
-  </si>
-  <si>
-    <t>5995953119</t>
-  </si>
-  <si>
-    <t>6012912709</t>
-  </si>
-  <si>
-    <t>6012920700</t>
-  </si>
-  <si>
-    <t>5972553619</t>
-  </si>
-  <si>
-    <t>6008328084</t>
-  </si>
-  <si>
-    <t>6004756056</t>
-  </si>
-  <si>
-    <t>6009117906</t>
-  </si>
-  <si>
-    <t>5973586324</t>
-  </si>
-  <si>
-    <t>5993893511</t>
-  </si>
-  <si>
-    <t>5994903645</t>
-  </si>
-  <si>
-    <t>6008999208</t>
-  </si>
-  <si>
-    <t>5977662793</t>
-  </si>
-  <si>
-    <t>6003857251</t>
-  </si>
-  <si>
-    <t>5994000059</t>
-  </si>
-  <si>
-    <t>5980209195</t>
-  </si>
-  <si>
-    <t>5980215960</t>
-  </si>
-  <si>
-    <t>5980153717</t>
-  </si>
-  <si>
-    <t>5980194013</t>
-  </si>
-  <si>
-    <t>5980129391</t>
-  </si>
-  <si>
-    <t>5980115825</t>
-  </si>
-  <si>
-    <t>5975673776</t>
-  </si>
-  <si>
-    <t>5975686048</t>
-  </si>
-  <si>
-    <t>5975660639</t>
-  </si>
-  <si>
-    <t>5975635155</t>
-  </si>
-  <si>
-    <t>5975646342</t>
-  </si>
-  <si>
-    <t>5975608204</t>
-  </si>
-  <si>
-    <t>5975621734</t>
-  </si>
-  <si>
-    <t>5975594630</t>
-  </si>
-  <si>
-    <t>5975565597</t>
-  </si>
-  <si>
-    <t>5975579061</t>
-  </si>
-  <si>
-    <t>We have 3 bedroom apartments at Pine Creek</t>
-  </si>
-  <si>
-    <t>PET FRIENDLY, NEARLY NEW HOME!</t>
-  </si>
-  <si>
-    <t>Home for rent</t>
-  </si>
-  <si>
-    <t>Sharp and Spacious Townhome</t>
-  </si>
-  <si>
-    <t>Newer 3Be 2Ba 2Car Nice Single House Great Location</t>
-  </si>
-  <si>
-    <t>Downtown Speer Capitol Hill BEST Priced 1 Bed - 5 min to LODO Uptown</t>
-  </si>
-  <si>
-    <t>Amazing New Two Beds Move In Specials Available At SkyHouse Denver Lease Today!</t>
-  </si>
-  <si>
-    <t>Night Patrol, Package Receiving, On-Site Management</t>
-  </si>
-  <si>
-    <t>Quaint, Nice Living Space and Charming..</t>
-  </si>
-  <si>
-    <t>SAVE $8,100 - Super VIP Luxury - 2 Months FREE Rent - Downtown Golden Triangle C</t>
-  </si>
-  <si>
-    <t>Nice Townhouse For Rent</t>
-  </si>
-  <si>
-    <t>Modern + Classic Flat in LoHi</t>
-  </si>
-  <si>
-    <t>Beautiful House For Rent</t>
-  </si>
-  <si>
-    <t>DENVER UNIVERSITY - HOUSES FOR RENT FOR NEXT SCHOOL YEAR</t>
-  </si>
-  <si>
-    <t>Call and ask how to get $500 off the 1st months rent</t>
-  </si>
-  <si>
-    <t>Gorgeous New Town House on Tennyson</t>
-  </si>
-  <si>
-    <t>Northglenn Upscale Town home</t>
-  </si>
-  <si>
-    <t>Beautifully Re-Modeled 2 bed/ 1.5 bath Town Home</t>
-  </si>
-  <si>
-    <t>Cozy 1 bedroom with fireplace!</t>
+    <t>5988545926</t>
+  </si>
+  <si>
+    <t>5995526056</t>
+  </si>
+  <si>
+    <t>6008029844</t>
+  </si>
+  <si>
+    <t>6014451242</t>
+  </si>
+  <si>
+    <t>5996315232</t>
+  </si>
+  <si>
+    <t>5994052533</t>
+  </si>
+  <si>
+    <t>6014453751</t>
+  </si>
+  <si>
+    <t>6009485083</t>
+  </si>
+  <si>
+    <t>6014446077</t>
+  </si>
+  <si>
+    <t>6003906387</t>
+  </si>
+  <si>
+    <t>5995129622</t>
+  </si>
+  <si>
+    <t>5995497145</t>
+  </si>
+  <si>
+    <t>6006825923</t>
+  </si>
+  <si>
+    <t>6008317196</t>
+  </si>
+  <si>
+    <t>5987700726</t>
+  </si>
+  <si>
+    <t>5988004747</t>
+  </si>
+  <si>
+    <t>5996884541</t>
+  </si>
+  <si>
+    <t>5978150759</t>
+  </si>
+  <si>
+    <t>5972584644</t>
+  </si>
+  <si>
+    <t>6003262330</t>
+  </si>
+  <si>
+    <t>6010903344</t>
+  </si>
+  <si>
+    <t>5986516150</t>
+  </si>
+  <si>
+    <t>5985467133</t>
+  </si>
+  <si>
+    <t>5989588713</t>
+  </si>
+  <si>
+    <t>6014417328</t>
+  </si>
+  <si>
+    <t>6014416733</t>
+  </si>
+  <si>
+    <t>5986698737</t>
+  </si>
+  <si>
+    <t>6008313945</t>
+  </si>
+  <si>
+    <t>6002302185</t>
+  </si>
+  <si>
+    <t>5994734361</t>
+  </si>
+  <si>
+    <t>5983735222</t>
+  </si>
+  <si>
+    <t>5996331411</t>
+  </si>
+  <si>
+    <t>5995073072</t>
+  </si>
+  <si>
+    <t>6003248933</t>
+  </si>
+  <si>
+    <t>6009124800</t>
+  </si>
+  <si>
+    <t>5984831713</t>
+  </si>
+  <si>
+    <t>6009526500</t>
+  </si>
+  <si>
+    <t>6008040431</t>
+  </si>
+  <si>
+    <t>6000857704</t>
+  </si>
+  <si>
+    <t>5988075899</t>
+  </si>
+  <si>
+    <t>6002476013</t>
+  </si>
+  <si>
+    <t>5989315995</t>
+  </si>
+  <si>
+    <t>5996919237</t>
+  </si>
+  <si>
+    <t>6002475389</t>
+  </si>
+  <si>
+    <t>5988862856</t>
+  </si>
+  <si>
+    <t>5975614154</t>
+  </si>
+  <si>
+    <t>6008614336</t>
+  </si>
+  <si>
+    <t>6003249022</t>
+  </si>
+  <si>
+    <t>5985630287</t>
+  </si>
+  <si>
+    <t>6002465848</t>
+  </si>
+  <si>
+    <t>5992054358</t>
+  </si>
+  <si>
+    <t>5979538346</t>
+  </si>
+  <si>
+    <t>6007672915</t>
+  </si>
+  <si>
+    <t>5975696538</t>
+  </si>
+  <si>
+    <t>6007766926</t>
+  </si>
+  <si>
+    <t>5985669492</t>
+  </si>
+  <si>
+    <t>5992525024</t>
+  </si>
+  <si>
+    <t>6014383377</t>
+  </si>
+  <si>
+    <t>6006152960</t>
+  </si>
+  <si>
+    <t>6003248973</t>
+  </si>
+  <si>
+    <t>6014379677</t>
+  </si>
+  <si>
+    <t>5973881971</t>
+  </si>
+  <si>
+    <t>6014376091</t>
+  </si>
+  <si>
+    <t>6005146808</t>
+  </si>
+  <si>
+    <t>6014368131</t>
+  </si>
+  <si>
+    <t>6002333384</t>
+  </si>
+  <si>
+    <t>6014372303</t>
+  </si>
+  <si>
+    <t>6014368711</t>
+  </si>
+  <si>
+    <t>6008254165</t>
+  </si>
+  <si>
+    <t>5996352932</t>
+  </si>
+  <si>
+    <t>6014368929</t>
+  </si>
+  <si>
+    <t>6014362051</t>
+  </si>
+  <si>
+    <t>6014366344</t>
+  </si>
+  <si>
+    <t>6006658737</t>
+  </si>
+  <si>
+    <t>5996729589</t>
+  </si>
+  <si>
+    <t>6014363577</t>
+  </si>
+  <si>
+    <t>6014363189</t>
+  </si>
+  <si>
+    <t>6014356996</t>
+  </si>
+  <si>
+    <t>5988460630</t>
+  </si>
+  <si>
+    <t>5985123387</t>
+  </si>
+  <si>
+    <t>6005343572</t>
+  </si>
+  <si>
+    <t>6002607666</t>
+  </si>
+  <si>
+    <t>6007542964</t>
+  </si>
+  <si>
+    <t>6014358720</t>
+  </si>
+  <si>
+    <t>6014352641</t>
+  </si>
+  <si>
+    <t>6014357626</t>
+  </si>
+  <si>
+    <t>5979672859</t>
+  </si>
+  <si>
+    <t>6014351503</t>
+  </si>
+  <si>
+    <t>5972073568</t>
+  </si>
+  <si>
+    <t>6014353733</t>
+  </si>
+  <si>
+    <t>6001380435</t>
+  </si>
+  <si>
+    <t>5988615143</t>
+  </si>
+  <si>
+    <t>5975705441</t>
+  </si>
+  <si>
+    <t>5987924545</t>
+  </si>
+  <si>
+    <t>6014346726</t>
+  </si>
+  <si>
+    <t>6014348144</t>
+  </si>
+  <si>
+    <t>6001365299</t>
+  </si>
+  <si>
+    <t>5994446346</t>
+  </si>
+  <si>
+    <t>6005709856</t>
+  </si>
+  <si>
+    <t>5984497159</t>
+  </si>
+  <si>
+    <t>Clubhouse with WiFi, Adams 12 Five Star Schools, Package Service</t>
+  </si>
+  <si>
+    <t>Great Parker Location. Move-In Specials. Call Today.</t>
+  </si>
+  <si>
+    <t>1 Bed/1 Bath, Oversized patios &amp; balconies, Oversized garden tubs</t>
+  </si>
+  <si>
+    <t>Did Your Landlord GIVE YOU $21,000 Last Year For Renting?</t>
+  </si>
+  <si>
+    <t>Wood-burning Fireplace in select homes, Air Conditioning, Two Hot Tubs</t>
+  </si>
+  <si>
+    <t>Heat, Range, Sundeck</t>
+  </si>
+  <si>
+    <t>2 BR Ranch Plus $1400</t>
+  </si>
+  <si>
+    <t>2 bedroom - Dog Washing Station, Gas Log Fireplaces, Cable Ready</t>
+  </si>
+  <si>
+    <t>READY TO MOVE IN -- LUXURY 4BR/STUDY/3.5BATH/3CAR RICHMOND BUILT HOUSE</t>
+  </si>
+  <si>
+    <t>Full-Size Washer &amp; Dryer in Each Apt, Pet Friendly Community, Paw Spa</t>
+  </si>
+  <si>
+    <t>Walk-In Closets, Smoke Free Living</t>
+  </si>
+  <si>
+    <t>Two Hot Tubs, Air Conditioning, Wood-burning Fireplace in select homes</t>
+  </si>
+  <si>
+    <t>Check out our one bedroom availability today!</t>
+  </si>
+  <si>
+    <t>Best prices in the area for 2 BR!! Hurry and apply today!!</t>
+  </si>
+  <si>
+    <t>Balcony, Public Transportation, Pets Allowed</t>
+  </si>
+  <si>
+    <t>High Ceilings, Built-in Work Spaces, Breezeway Garages</t>
+  </si>
+  <si>
+    <t>"Welcome Home!" 1 Bedrm 1 Bath W/ W&amp;D;, Fireplace MI Now !!</t>
+  </si>
+  <si>
+    <t>Washer &amp; Dryer, High Ceilings, Stainless steel appliances</t>
+  </si>
+  <si>
+    <t>1 bedroom - Salt Water Pool, Hardwood floors, Sky Deck</t>
   </si>
   <si>
     <t>CARPORTS AVAILABLE!!! OPEN PARKING ONSITE!</t>
   </si>
   <si>
-    <t>Fix your rental credit history first! Pay us after it's fixed!</t>
-  </si>
-  <si>
-    <t>2 Bedroom Townhouse unit 5</t>
-  </si>
-  <si>
-    <t>DUPLEX for rent</t>
-  </si>
-  <si>
-    <t>3 bdrm.,  2 bath,  2  living rooms,  1  car garage  2400 sq. ft</t>
-  </si>
-  <si>
-    <t>Spacious Parker Home  Rent with right to buy</t>
-  </si>
-  <si>
-    <t>2 Months FREE - 2 Months FREE - Downtown Golden Triangle 5 min to LODO LoHi - Do</t>
-  </si>
-  <si>
-    <t>Refridgerator, Pets Allowed, Short Term Lease</t>
-  </si>
-  <si>
-    <t>Entertainment kitchen, Yoga Studio, Guest Suite</t>
-  </si>
-  <si>
-    <t>10579 WYNSPIRE WAY, HIGHLANDS RANCH, CO, 80130</t>
-  </si>
-  <si>
-    <t>Package Service, Walk to Dayton Station (LightRail), RTD, Two Hot Tubs</t>
-  </si>
-  <si>
-    <t>Amazing Park Hill Home</t>
-  </si>
-  <si>
-    <t>Downtown Downtown - 2 Months FREE Rent - 5 min to Union Station LODO</t>
-  </si>
-  <si>
-    <t>Large Parker Home  Rent before you purchase</t>
-  </si>
-  <si>
-    <t>5 bdrm,3 bath, 2200 sq ft Brick Ranch and Mountain View</t>
-  </si>
-  <si>
-    <t>3BR/3BA Highlands Ranch Home near Northridge Elementary</t>
-  </si>
-  <si>
-    <t>Large 2 bed/2bath condo in Cap Hill with off-street parking</t>
-  </si>
-  <si>
-    <t>Across from Infinity Park, Beautiful 1 Bdrm w/ Balcony for March/April</t>
-  </si>
-  <si>
-    <t>^^Downtown Ballpark Lodo "BEST PRICE" - Green Property - STUNNING VIEWS 5 min to</t>
-  </si>
-  <si>
-    <t>SOUTHERN LAKEWOOD 3 BEDROOM RANCH</t>
-  </si>
-  <si>
-    <t>Beautiful Rennovated Two Bedroom Townhomes for February / March</t>
-  </si>
-  <si>
-    <t>2 Bed/1 Bath Highlands Apt - Available Now NO SECURITY DEPOSIT!</t>
-  </si>
-  <si>
-    <t>Two Hot Tubs, Wood-burning Fireplace in select homes, Walk-In Closets</t>
-  </si>
-  <si>
-    <t>Air Conditioner, Online Payments Available, Skylight</t>
-  </si>
-  <si>
-    <t>2 Months FREE RENT - Downtown 5 min to Cherry Creek Union Station Lodo Lohi - HU</t>
-  </si>
-  <si>
-    <t>Updater Moving Partner, 24-Hour Fitness Center, Basketball Court</t>
-  </si>
-  <si>
-    <t>2 BEDROOMS, MOUNTAIN VIEWS, W/D IN UNIT, BALCONIES, OLDE TOWN ARVADA</t>
-  </si>
-  <si>
-    <t>14th Floor STUNNING VIEWS  - 2 Months FREE RENT - Downtown 5 min to Cherry Creek</t>
-  </si>
-  <si>
-    <t>2 Bed - 2 Bath, On-Site Maintenance, Spa</t>
-  </si>
-  <si>
-    <t>Reserved Carports Available, In-Home Washer and Dryer, 9 Foot Ceilings</t>
-  </si>
-  <si>
-    <t>State-of-the-art fitness center, Networked business center, Paw spa</t>
-  </si>
-  <si>
-    <t>Cut Berber carpeting, Built-in microwaves, Kitchen pantries</t>
-  </si>
-  <si>
-    <t>River North Loft for Rent (Taxi II Bldg.)</t>
-  </si>
-  <si>
-    <t>Very nice 2/2/1 car garage</t>
-  </si>
-  <si>
-    <t>Rent this Home in Highlands Ranch</t>
-  </si>
-  <si>
-    <t>Island Kitchens, One Mile to Cherry Creek Reservoir, Package Service</t>
-  </si>
-  <si>
-    <t>Ranch house in South Aurora for Rent</t>
-  </si>
-  <si>
-    <t>Crown Molding, Air Conditioning, Basketball Court</t>
-  </si>
-  <si>
-    <t>24-Hour Fitness Center with Yoga Space, Two Hot Tubs, 9 Foot Ceilings</t>
-  </si>
-  <si>
-    <t>Relocating to Denver, CO? Who isn't! Reach out for Professional Help**</t>
-  </si>
-  <si>
-    <t>** Best Neighborhoods For Food, Wine, Happy Hour &amp; Brunch **</t>
-  </si>
-  <si>
-    <t>Specials? YES! - Private Garage Option? YES! - Hardwood, Granite</t>
-  </si>
-  <si>
-    <t>**BEST Gyms** BEST Specials** BEST Locations**</t>
-  </si>
-  <si>
-    <t>** Whose Super Pet Friendly Denver **</t>
-  </si>
-  <si>
-    <t>**Help Renting a High Rise in Denver**</t>
-  </si>
-  <si>
-    <t>1 bedroom - Dishwasher, Stainless Steel Appliances, Movie Theater</t>
-  </si>
-  <si>
-    <t>Highrise Luxury "The Barclay"</t>
-  </si>
-  <si>
-    <t>Cable/Satellite, Pool, Laundry Facility</t>
-  </si>
-  <si>
-    <t>Stainless steel appliances, Yoga Studio, High Ceilings</t>
-  </si>
-  <si>
-    <t>Available now - smoke free ranch townhouse w/ 2 car attached gar</t>
-  </si>
-  <si>
-    <t>3 beds 1 bath 971 sqft</t>
-  </si>
-  <si>
-    <t>DU/Observatory Park/Southeast Denver</t>
-  </si>
-  <si>
-    <t>Window Coverings, Pool, Dishwasher</t>
-  </si>
-  <si>
-    <t>Swimming Pool, 24-Hour Fitness Center, Business Center</t>
-  </si>
-  <si>
-    <t>LARGE 2 BEDROOM 1167 SQ FT GET YOURS TODAY BEFORE THEY'RE GONE</t>
-  </si>
-  <si>
-    <t>Great Specials...Don't Miss Out!</t>
-  </si>
-  <si>
-    <t>Playground, Easy Access to I-25 and E-470, Updater Moving Partner</t>
-  </si>
-  <si>
-    <t>Bike storage, Cut Berber carpeting, Stainless steel double sinks</t>
-  </si>
-  <si>
-    <t>South Aurora near Quincy Reservoir</t>
-  </si>
-  <si>
-    <t>White Shaker Cabinets, Fitness Center, Clubhouse</t>
-  </si>
-  <si>
-    <t>Pool, Cable/Satellite, Public Transportation</t>
-  </si>
-  <si>
-    <t>1 Bed/1 Bath, Cyber café with computer stations and Wi-Fi, Paw spa</t>
-  </si>
-  <si>
-    <t>Air Conditioning, Englewood and Cherry Creek Schools, Private Balcony</t>
-  </si>
-  <si>
-    <t>City Park Cheeseman Park 5 min to Downtown Uptown $500 OFF City Park Cheesman</t>
-  </si>
-  <si>
-    <t>City Park Cheeseman Park PENTHOUSE! 5 min to Downtown Uptown $500 OFF City Park</t>
-  </si>
-  <si>
-    <t>SUPER Luxury! Stunning Views! 2 Months FREE Rent! 5 min to Downtown Cherry Creek</t>
-  </si>
-  <si>
-    <t>Golden Triangle Downtown - 2 Months FREE Rent - Super Vip Luxury 5 min to Cherry</t>
-  </si>
-  <si>
-    <t>Golden Triangle Downtown Downtown - 2 Months FREE Rent - 5 min to Cherry creek L</t>
-  </si>
-  <si>
-    <t>FREE Parking - Super Luxury Downtown Capitol Hill Golden Triangle Downtown</t>
-  </si>
-  <si>
-    <t>Best Priced 1x1 in Downtown Capitol Hill / Golden Triangle 5 min to LODO</t>
-  </si>
-  <si>
-    <t>RiNo LODO RiNo LoDo 2x2 - $500 Gift Card - 1 Free Garage Parking Spot {{{{{{{{{{</t>
-  </si>
-  <si>
-    <t>RiNo LODO BEST Deal - 1 Free Parking SPot + $500 Gift Card RiNo LODO Downtown BE</t>
-  </si>
-  <si>
-    <t>Downtowns BEST DEAL ~Corner Unit - 1623 sq ft - LODO Downtown 2.5 Months FREE RE</t>
-  </si>
-  <si>
-    <t>Downtown *Penthouse* LODO 2.5 MONTHS FREE RENT Downtown RiNo Luxury Loft</t>
-  </si>
-  <si>
-    <t>BEST DEAL in Downtown LODO Downtown ~ 2.5 Months FREE Rent ~ Move in TODAY! ~ ~~</t>
-  </si>
-  <si>
-    <t>Downtown Downtown LODO ~ 2.5 Months FREE RENT ~ Walkable Ball Park LODO ~</t>
-  </si>
-  <si>
-    <t>DOWNTOWN 2.5 Months FREE RENT ~1008 Sq FT HUGE ~ Ball Park LODO Downtown RINO ~</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:55</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:51</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:49</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:48</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:46</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:45</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:41</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:40</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:38</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:36</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:33</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:32</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:29</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:28</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:25</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:24</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:22</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:21</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:17</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:10</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:09</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:07</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:05</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:04</t>
-  </si>
-  <si>
-    <t>2017-02-21 07:02</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:58</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:57</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:49</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:46</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:45</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:42</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:41</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:40</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:30</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:28</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:26</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:25</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:23</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:20</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:15</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:14</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:12</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:10</t>
-  </si>
-  <si>
-    <t>2017-02-21 06:05</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:54</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:49</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:48</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:28</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:23</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:20</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:11</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:06</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:04</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:00</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:51</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:26</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:24</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:23</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:13</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:03</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:00</t>
-  </si>
-  <si>
-    <t>2017-02-21 03:53</t>
-  </si>
-  <si>
-    <t>2017-02-21 03:52</t>
-  </si>
-  <si>
-    <t>2017-02-21 03:44</t>
-  </si>
-  <si>
-    <t>2017-02-21 03:43</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5992173352.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013083903.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013083695.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5992114916.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013078674.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013074964.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013074379.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5988595990.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013070919.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013056564.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013069435.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5995604129.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013061992.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6005969399.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6002165820.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5981739643.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5984481871.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013036627.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5996396585.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6004831131.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6003443254.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6008751511.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5999233177.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6003084143.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5972790522.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013039200.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5983353652.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5976262518.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012967633.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6008221018.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993284495.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6013006982.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993076241.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6001295647.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012997988.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012993425.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012997195.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012994529.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5996890002.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012996022.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012992837.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993751807.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5992610616.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012981626.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5976251481.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6007653009.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012970647.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6009066234.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993526526.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5999368623.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5994893408.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012967129.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012966869.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6005476191.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6008282192.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5994911627.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993578719.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993313602.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6007866780.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6004580940.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6008362809.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5991832955.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5991831735.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6007667718.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6003922371.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012933230.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6002057067.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5984897215.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5979225504.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6001489658.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5995953119.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012912709.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6012920700.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5972553619.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6008328084.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6004756056.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6009117906.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5973586324.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5993893511.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5994903645.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6008999208.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5977662793.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/6003857251.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5994000059.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5980209195.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5980215960.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5980153717.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5980194013.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5980129391.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5980115825.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975673776.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975686048.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975660639.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975635155.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975646342.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975608204.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975621734.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975594630.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975565597.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/apa/5975579061.html</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5992173352</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013083903</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013083695</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5992114916</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013078674</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013074964</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013074379</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5988595990</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013070919</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013056564</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013069435</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5995604129</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013061992</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6005969399</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6002165820</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5981739643</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5984481871</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013036627</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5996396585</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6004831131</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6003443254</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6008751511</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5999233177</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6003084143</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5972790522</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013039200</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5983353652</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5976262518</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012967633</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6008221018</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993284495</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6013006982</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993076241</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6001295647</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012997988</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012993425</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012997195</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012994529</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5996890002</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012996022</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012992837</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993751807</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5992610616</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012981626</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5976251481</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6007653009</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012970647</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6009066234</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993526526</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5999368623</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5994893408</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012967129</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012966869</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6005476191</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6008282192</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5994911627</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993578719</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993313602</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6007866780</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6004580940</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6008362809</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5991832955</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5991831735</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6007667718</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6003922371</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012933230</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6002057067</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5984897215</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5979225504</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6001489658</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5995953119</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012912709</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6012920700</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5972553619</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6008328084</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6004756056</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6009117906</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5973586324</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5993893511</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5994903645</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6008999208</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5977662793</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/6003857251</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5994000059</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5980209195</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5980215960</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5980153717</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5980194013</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5980129391</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5980115825</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975673776</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975686048</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975660639</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975635155</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975646342</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975608204</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975621734</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975594630</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975565597</t>
-  </si>
-  <si>
-    <t>https://denver.craigslist.org/reply/den/apa/5975579061</t>
+    <t>Resort-style pool with sun lounge, Bike storage, Cut Berber carpeting</t>
+  </si>
+  <si>
+    <t>Balcony, Courtyard, On-site Management</t>
+  </si>
+  <si>
+    <t>Subway tile backsplashes, Minutes to downtown, Spacious 9´ ceilings</t>
+  </si>
+  <si>
+    <t>Package Service, Playground, Spacious Walk-In Closets</t>
+  </si>
+  <si>
+    <t>Newly remodeled 3 bedroom 2 bath</t>
+  </si>
+  <si>
+    <t>Beautifully remodeled style townhouse-FOR RENT</t>
+  </si>
+  <si>
+    <t>Tri level house in Centennial for Rent</t>
+  </si>
+  <si>
+    <t>UNBEATABLE DEALS $100 OFF CALL NOW FOR MORE INFORMATION!!!</t>
+  </si>
+  <si>
+    <t>9 Foot Ceilings, Air Conditioning, In-Home Washer and Dryer</t>
+  </si>
+  <si>
+    <t>Heat, Refridgerator, On-Site Maintenance</t>
+  </si>
+  <si>
+    <t>Cozy One Bedroom Apt. Home, Amenities, Smart Home Features.</t>
+  </si>
+  <si>
+    <t>Private Balcony, Business Center, Easy Access to I-25 and E-470</t>
+  </si>
+  <si>
+    <t>Two Seasonal Swimming Pools, Near Cherry Creek Mall, Air Conditioning</t>
+  </si>
+  <si>
+    <t>WALK IN CLOSETS IN EVERY APARTMENT!</t>
+  </si>
+  <si>
+    <t>1 Bed/1 Bath, We'll give you $200 for leasing!</t>
+  </si>
+  <si>
+    <t>Sundeck, Accepts Electronic Payments, Garage</t>
+  </si>
+  <si>
+    <t>1 bedroom - Rocky Mountain Views, Cable Ready, Spectacular Clubhouse</t>
+  </si>
+  <si>
+    <t>Wood-style Plank Flooring on First Floors, Large Bark Park, Paw Spa</t>
+  </si>
+  <si>
+    <t>Perfect and cozy two bedroom with fireplace</t>
+  </si>
+  <si>
+    <t>48-hour Maintenance Commitment, Cable/Satellite Ready, Plush Carpeting</t>
+  </si>
+  <si>
+    <t>Cupid's special $250 off your move in costs when you look and lease!</t>
+  </si>
+  <si>
+    <t>Business Center, Bike and ski repair area, Ceramic backsplash</t>
+  </si>
+  <si>
+    <t>Easy Access to Highway 285, Private Balcony, Business Center with WiFi</t>
+  </si>
+  <si>
+    <t>Pat's Picks, 10782 E Exposition #348</t>
+  </si>
+  <si>
+    <t>Pat's Picks, 14701 E Tennessee (Miss. &amp; Sable)</t>
+  </si>
+  <si>
+    <t>Pat's Picks, 1725 S Yampa</t>
+  </si>
+  <si>
+    <t>Pat's Picks, 17969 E Brown Pl, SE Aurora</t>
+  </si>
+  <si>
+    <t>AMAZING VIEWS!!! BEAUTIFUL COMMUNITY!</t>
+  </si>
+  <si>
+    <t>Attached, private garage!</t>
+  </si>
+  <si>
+    <t>Poolside gas grill, Wi-Fi access throughout common areas, Bike storage</t>
+  </si>
+  <si>
+    <t>In-Home Washer and Dryer, Carports, Mountain and Pool Views</t>
+  </si>
+  <si>
+    <t>Large 2 Bd/1Ba - Remodeled Duplex - Move-in Special</t>
+  </si>
+  <si>
+    <t>Reserved Carports Available, 9 Foot Ceilings, Two Hot Tubs</t>
+  </si>
+  <si>
+    <t>Larger house in South Parker for Rent</t>
+  </si>
+  <si>
+    <t>Two Hot Tubs, Private Balcony, Walk-In Closets</t>
+  </si>
+  <si>
+    <t>Near East Lake Trail, Short drive to Airport and Boulder, Tennis Court</t>
+  </si>
+  <si>
+    <t>Den Room, Pet Friendly, Amenities, Great Location.</t>
+  </si>
+  <si>
+    <t>Home in Arvada w/ Lease with Option to Purchase</t>
+  </si>
+  <si>
+    <t>1 Bed/1 Bath, Pet-friendly community, Cyber café</t>
+  </si>
+  <si>
+    <t>Home in Arvada Home -- Lease with the Option to Purchase</t>
+  </si>
+  <si>
+    <t>Air Conditioner, Business Center, Online Payments Available</t>
+  </si>
+  <si>
+    <t>Lease with Option to Purchase! Great Thornton Home</t>
+  </si>
+  <si>
+    <t>1 bedroom - Business Center, All Buildings 2 Stories, Large Roman Tubs</t>
+  </si>
+  <si>
+    <t>Ranch Style House near DU</t>
+  </si>
+  <si>
+    <t>Barbecue Grills &amp; Picnic Areas, Large Bark Park, Paw Spa</t>
+  </si>
+  <si>
+    <t>Lease with Option to Purchase! Great Arvada Home</t>
+  </si>
+  <si>
+    <t>Lease w/ Option to Purchase -- Thornton Home</t>
+  </si>
+  <si>
+    <t>Perfect two bedroom home for Roommates!</t>
+  </si>
+  <si>
+    <t>"Look No Further, Your Home" 2 Bedrm 2 Bath W/ So Much!!</t>
+  </si>
+  <si>
+    <t>Best Priced 2x2 in Downtown Denver 5 min to iunion station LoDo LoHi</t>
+  </si>
+  <si>
+    <t>~Wash Park Capitol Hill Cherry Creek SUPER Luxury 1 Month Free Rent ~~~~</t>
+  </si>
+  <si>
+    <t>Downtown Denver 5 min to Lohi Lodo Union Station! Save $$ 2x2 Super Walkable ~~~</t>
+  </si>
+  <si>
+    <t>Washer/Dryer in Every Unit, Planned Community Activities, Carports</t>
+  </si>
+  <si>
+    <t>Walk-In Closets, Vaulted Ceilings on top floor, 9 Foot Ceilings</t>
+  </si>
+  <si>
+    <t>Great Thornton Home for Lease with Option to Purchase</t>
+  </si>
+  <si>
+    <t>Charming Highlands Home for Rent in the Heart of Highlands Square</t>
+  </si>
+  <si>
+    <t>Washington Park ~ VIEWS ~ SUPER Modern ~ 1.5 Month FREE RENT ~ Cherry Creek</t>
+  </si>
+  <si>
+    <t>Dog wash station, Ceramic backsplash, Community Herb Garden</t>
+  </si>
+  <si>
+    <t>1 bedroom - Hardwood floors, Stainless steel appliances, Fitness Center</t>
+  </si>
+  <si>
+    <t>1 Bed/1 Bath, Pet-friendly community, Built-in microwaves</t>
+  </si>
+  <si>
+    <t>Call to find out how to get $500 off move-in</t>
+  </si>
+  <si>
+    <t>MOUNTAIN VIEWS!!! SUNNY BALCONIES!</t>
+  </si>
+  <si>
+    <t>Great Westminster Home for Lease with Option to Purchase</t>
+  </si>
+  <si>
+    <t>Private Entrance ~ Cherry Creek Washington Park Downtown ~ 1.5 Month FREE RENT ~</t>
+  </si>
+  <si>
+    <t>Now Avail 2/2 DTC Cov'd park,</t>
+  </si>
+  <si>
+    <t>Public Transportation, Elevator, Balcony</t>
+  </si>
+  <si>
+    <t>*~ Rates dropped!~* #Specials! #FREEParking!! DTC/Centennial/Englewood</t>
+  </si>
+  <si>
+    <t>Flat Irons views; Retailers, mall, RTD, and restaurants around corner!</t>
+  </si>
+  <si>
+    <t>Home in Centennial w/ Lease with Option to Purchase</t>
+  </si>
+  <si>
+    <t>Major Renovations Coming to ALL Community Amenities!!! Capitol Hill!!!</t>
+  </si>
+  <si>
+    <t>PET FRIENDLY APARTMENT!!! Baker/Washington Park/Platt Park/RTD</t>
+  </si>
+  <si>
+    <t>RiNo's Finest at YOUR fingertips! NEW!! River North Art District Now!!</t>
+  </si>
+  <si>
+    <t>Belmar Updated Large 1 Bedroom</t>
+  </si>
+  <si>
+    <t>"Penthouse Level" "1.5 Month Free Rent" "Super Luxury Capitol Hill Cherry Creek</t>
+  </si>
+  <si>
+    <t>*~*~* $500 OFF Move-In *~*~*  LoDo/Auraria/Speer/Pepsi Center/Downtown</t>
+  </si>
+  <si>
+    <t>Luxury isn't just a catch phrase here. Marble, REAL Wood, Blue-Tooth!!</t>
+  </si>
+  <si>
+    <t>Step Away from the Stress of the City Spin and Submerge in Serenity!!!</t>
+  </si>
+  <si>
+    <t>RTD to work! Modern feel with out the chaos! DTC/Englewood/Centennial</t>
+  </si>
+  <si>
+    <t>Commuter's Delight! Close to EVERYTHING in Denver! Downtown/RTD/DTC</t>
+  </si>
+  <si>
+    <t>2017-02-22 05:21</t>
+  </si>
+  <si>
+    <t>2017-02-22 05:19</t>
+  </si>
+  <si>
+    <t>2017-02-22 05:18</t>
+  </si>
+  <si>
+    <t>2017-02-22 05:12</t>
+  </si>
+  <si>
+    <t>2017-02-22 05:11</t>
+  </si>
+  <si>
+    <t>2017-02-22 05:08</t>
+  </si>
+  <si>
+    <t>2017-02-22 05:04</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:58</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:47</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:45</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:34</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:32</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:30</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:29</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:28</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:27</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:21</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:18</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:11</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:09</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:07</t>
+  </si>
+  <si>
+    <t>2017-02-22 04:02</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:55</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:49</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:45</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:32</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:28</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:26</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:25</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:19</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:17</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:13</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:11</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:06</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:05</t>
+  </si>
+  <si>
+    <t>2017-02-22 03:01</t>
+  </si>
+  <si>
+    <t>2017-02-22 02:50</t>
+  </si>
+  <si>
+    <t>2017-02-22 02:34</t>
+  </si>
+  <si>
+    <t>2017-02-22 02:33</t>
+  </si>
+  <si>
+    <t>2017-02-22 02:27</t>
+  </si>
+  <si>
+    <t>2017-02-22 02:20</t>
+  </si>
+  <si>
+    <t>2017-02-22 02:15</t>
+  </si>
+  <si>
+    <t>2017-02-22 02:14</t>
+  </si>
+  <si>
+    <t>2017-02-22 02:06</t>
+  </si>
+  <si>
+    <t>2017-02-22 02:04</t>
+  </si>
+  <si>
+    <t>2017-02-22 02:01</t>
+  </si>
+  <si>
+    <t>2017-02-22 01:59</t>
+  </si>
+  <si>
+    <t>2017-02-22 01:45</t>
+  </si>
+  <si>
+    <t>2017-02-22 01:26</t>
+  </si>
+  <si>
+    <t>2017-02-22 01:25</t>
+  </si>
+  <si>
+    <t>2017-02-22 01:17</t>
+  </si>
+  <si>
+    <t>2017-02-22 01:10</t>
+  </si>
+  <si>
+    <t>2017-02-22 01:09</t>
+  </si>
+  <si>
+    <t>2017-02-22 01:08</t>
+  </si>
+  <si>
+    <t>2017-02-22 01:01</t>
+  </si>
+  <si>
+    <t>2017-02-22 01:00</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:55</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:54</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:52</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:46</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:38</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:31</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:30</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:28</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:22</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:20</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:19</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:13</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:10</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:09</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:06</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:05</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:04</t>
+  </si>
+  <si>
+    <t>2017-02-22 00:00</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:59</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:58</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:53</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:52</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:50</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:46</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:41</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:40</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:38</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:34</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:33</t>
+  </si>
+  <si>
+    <t>2017-02-21 23:32</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5988545926.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5995526056.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008029844.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014451242.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5996315232.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5994052533.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014453751.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6009485083.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014446077.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6003906387.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5995129622.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5995497145.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6006825923.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008317196.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5987700726.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5988004747.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5996884541.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5978150759.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5972584644.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6003262330.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6010903344.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5986516150.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5985467133.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5989588713.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014417328.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014416733.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5986698737.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008313945.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6002302185.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5994734361.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5983735222.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5996331411.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5995073072.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6003248933.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6009124800.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5984831713.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6009526500.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008040431.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6000857704.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5988075899.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6002476013.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5989315995.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5996919237.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6002475389.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5988862856.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975614154.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008614336.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6003249022.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5985630287.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6002465848.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5992054358.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5979538346.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6007672915.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975696538.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6007766926.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5985669492.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5992525024.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014383377.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6006152960.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6003248973.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014379677.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5973881971.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014376091.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6005146808.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014368131.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6002333384.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014372303.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014368711.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6008254165.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5996352932.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014368929.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014362051.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014366344.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6006658737.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5996729589.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014363577.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014363189.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014356996.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5988460630.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5985123387.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6005343572.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6002607666.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6007542964.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014358720.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014352641.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014357626.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5979672859.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014351503.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5972073568.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014353733.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6001380435.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5988615143.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5975705441.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5987924545.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014346726.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6014348144.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6001365299.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5994446346.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/6005709856.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/apa/5984497159.html</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5988545926</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5995526056</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008029844</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014451242</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5996315232</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5994052533</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014453751</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6009485083</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014446077</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6003906387</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5995129622</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5995497145</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6006825923</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008317196</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5987700726</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5988004747</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5996884541</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5978150759</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5972584644</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6003262330</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6010903344</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5986516150</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5985467133</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5989588713</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014417328</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014416733</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5986698737</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008313945</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6002302185</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5994734361</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5983735222</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5996331411</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5995073072</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6003248933</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6009124800</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5984831713</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6009526500</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008040431</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6000857704</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5988075899</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6002476013</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5989315995</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5996919237</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6002475389</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5988862856</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975614154</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008614336</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6003249022</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5985630287</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6002465848</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5992054358</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5979538346</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6007672915</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975696538</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6007766926</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5985669492</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5992525024</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014383377</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6006152960</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6003248973</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014379677</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5973881971</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014376091</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6005146808</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014368131</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6002333384</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014372303</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014368711</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6008254165</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5996352932</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014368929</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014362051</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014366344</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6006658737</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5996729589</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014363577</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014363189</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014356996</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5988460630</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5985123387</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6005343572</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6002607666</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6007542964</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014358720</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014352641</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014357626</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5979672859</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014351503</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5972073568</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014353733</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6001380435</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5988615143</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5975705441</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5987924545</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014346726</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6014348144</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6001365299</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5994446346</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/6005709856</t>
+  </si>
+  <si>
+    <t>https://denver.craigslist.org/reply/den/apa/5984497159</t>
   </si>
 </sst>
 </file>
@@ -1833,19 +1905,19 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1050</v>
+        <v>1228</v>
       </c>
       <c r="F2">
-        <v>1100</v>
+        <v>1647</v>
       </c>
       <c r="G2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1859,22 +1931,22 @@
         <v>109</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1788</v>
+        <v>1117</v>
       </c>
       <c r="F3">
-        <v>1875</v>
+        <v>1444</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1888,22 +1960,22 @@
         <v>110</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1380</v>
+        <v>683</v>
       </c>
       <c r="F4">
-        <v>2100</v>
+        <v>1636</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1917,22 +1989,22 @@
         <v>111</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>1560</v>
+        <v>3145</v>
       </c>
       <c r="F5">
-        <v>1825</v>
+        <v>2450</v>
       </c>
       <c r="G5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1946,22 +2018,19 @@
         <v>112</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1500</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1950</v>
+        <v>1450</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1978,19 +2047,19 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="F7">
-        <v>1303</v>
+        <v>1155</v>
       </c>
       <c r="G7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2007,19 +2076,19 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>1029</v>
+        <v>1650</v>
       </c>
       <c r="F8">
-        <v>2575</v>
+        <v>1400</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2033,22 +2102,22 @@
         <v>115</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>673</v>
+        <v>942</v>
       </c>
       <c r="F9">
-        <v>1270</v>
+        <v>1435</v>
       </c>
       <c r="G9" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2062,22 +2131,22 @@
         <v>116</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>1100</v>
+        <v>4500</v>
       </c>
       <c r="F10">
-        <v>1425</v>
+        <v>2899</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2094,19 +2163,19 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>1720</v>
+        <v>880</v>
       </c>
       <c r="F11">
-        <v>3375</v>
+        <v>1235</v>
       </c>
       <c r="G11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2122,17 +2191,20 @@
       <c r="D12">
         <v>2</v>
       </c>
+      <c r="E12">
+        <v>1110</v>
+      </c>
       <c r="F12">
-        <v>1295</v>
+        <v>1529</v>
       </c>
       <c r="G12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2146,22 +2218,19 @@
         <v>119</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>940</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>2100</v>
+        <v>1154</v>
       </c>
       <c r="G13" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2175,19 +2244,22 @@
         <v>120</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>616</v>
       </c>
       <c r="F14">
-        <v>2395</v>
+        <v>1495</v>
       </c>
       <c r="G14" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2201,22 +2273,22 @@
         <v>121</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F15">
-        <v>2100</v>
+        <v>1075</v>
       </c>
       <c r="G15" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2233,19 +2305,19 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>777</v>
+        <v>680</v>
       </c>
       <c r="F16">
-        <v>1295</v>
+        <v>1095</v>
       </c>
       <c r="G16" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2259,22 +2331,22 @@
         <v>123</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1716</v>
+        <v>882</v>
       </c>
       <c r="F17">
-        <v>2995</v>
+        <v>1170</v>
       </c>
       <c r="G17" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2288,22 +2360,22 @@
         <v>124</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1436</v>
+        <v>750</v>
       </c>
       <c r="F18">
-        <v>1800</v>
+        <v>1119</v>
       </c>
       <c r="G18" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2317,22 +2389,22 @@
         <v>125</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="F19">
-        <v>1550</v>
+        <v>1795</v>
       </c>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2349,19 +2421,19 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>751</v>
+        <v>700</v>
       </c>
       <c r="F20">
-        <v>1293</v>
+        <v>1460</v>
       </c>
       <c r="G20" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2375,22 +2447,22 @@
         <v>127</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1783</v>
+        <v>703</v>
       </c>
       <c r="F21">
-        <v>2142</v>
+        <v>1175</v>
       </c>
       <c r="G21" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2404,22 +2476,22 @@
         <v>128</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>2250</v>
+        <v>1184</v>
       </c>
       <c r="F22">
-        <v>1150</v>
+        <v>1770</v>
       </c>
       <c r="G22" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2433,19 +2505,22 @@
         <v>129</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>736</v>
       </c>
       <c r="F23">
-        <v>1100</v>
+        <v>1120</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2459,19 +2534,22 @@
         <v>130</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1095</v>
       </c>
       <c r="F24">
-        <v>1725</v>
+        <v>1788</v>
       </c>
       <c r="G24" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2485,22 +2563,22 @@
         <v>131</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>2400</v>
+        <v>1032</v>
       </c>
       <c r="F25">
-        <v>2100</v>
+        <v>1399</v>
       </c>
       <c r="G25" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2514,19 +2592,19 @@
         <v>132</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>3200</v>
+        <v>1450</v>
       </c>
       <c r="G26" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2542,20 +2620,17 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27">
-        <v>1361</v>
-      </c>
       <c r="F27">
-        <v>2458</v>
+        <v>1200</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2569,22 +2644,22 @@
         <v>134</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>680</v>
+        <v>1164</v>
       </c>
       <c r="F28">
-        <v>1050</v>
+        <v>1895</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2598,22 +2673,22 @@
         <v>135</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>516</v>
+        <v>900</v>
       </c>
       <c r="F29">
-        <v>1683</v>
+        <v>1075</v>
       </c>
       <c r="G29" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2627,22 +2702,22 @@
         <v>136</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>3100</v>
+        <v>730</v>
       </c>
       <c r="F30">
-        <v>1400</v>
+        <v>1225</v>
       </c>
       <c r="G30" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2659,19 +2734,19 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>793</v>
+        <v>680</v>
       </c>
       <c r="F31">
-        <v>1334</v>
+        <v>1095</v>
       </c>
       <c r="G31" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2685,22 +2760,22 @@
         <v>138</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>1800</v>
+        <v>812</v>
       </c>
       <c r="F32">
-        <v>2250</v>
+        <v>1181</v>
       </c>
       <c r="G32" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2717,19 +2792,19 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>1143</v>
+        <v>1119</v>
       </c>
       <c r="F33">
-        <v>2333</v>
+        <v>1450</v>
       </c>
       <c r="G33" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2743,19 +2818,22 @@
         <v>140</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>730</v>
       </c>
       <c r="F34">
-        <v>3250</v>
+        <v>1288</v>
       </c>
       <c r="G34" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2769,22 +2847,22 @@
         <v>141</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>2200</v>
+        <v>1153</v>
       </c>
       <c r="F35">
-        <v>2195</v>
+        <v>1445</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2798,22 +2876,22 @@
         <v>142</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>2200</v>
+        <v>788</v>
       </c>
       <c r="F36">
-        <v>2200</v>
+        <v>1718</v>
       </c>
       <c r="G36" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2827,22 +2905,22 @@
         <v>143</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1017</v>
+        <v>736</v>
       </c>
       <c r="F37">
-        <v>2000</v>
+        <v>1120</v>
       </c>
       <c r="G37" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2859,19 +2937,19 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="F38">
-        <v>1050</v>
+        <v>1290</v>
       </c>
       <c r="G38" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2888,19 +2966,19 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>1138</v>
+        <v>960</v>
       </c>
       <c r="F39">
-        <v>2000</v>
+        <v>1344</v>
       </c>
       <c r="G39" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2914,19 +2992,22 @@
         <v>146</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1055</v>
       </c>
       <c r="F40">
-        <v>2050</v>
+        <v>1435</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2940,22 +3021,22 @@
         <v>147</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="F41">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2969,22 +3050,22 @@
         <v>148</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>875</v>
+        <v>1050</v>
       </c>
       <c r="F42">
-        <v>1700</v>
+        <v>1246</v>
       </c>
       <c r="G42" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3001,19 +3082,19 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="F43">
-        <v>1345</v>
+        <v>1795</v>
       </c>
       <c r="G43" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3027,22 +3108,22 @@
         <v>150</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>673</v>
+        <v>1005</v>
       </c>
       <c r="F44">
-        <v>1270</v>
+        <v>1450</v>
       </c>
       <c r="G44" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3059,19 +3140,19 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>1143</v>
+        <v>761</v>
       </c>
       <c r="F45">
-        <v>2333</v>
+        <v>1150</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3088,19 +3169,19 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="F46">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3114,22 +3195,22 @@
         <v>153</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>1093</v>
+        <v>1900</v>
       </c>
       <c r="F47">
-        <v>1844</v>
+        <v>2200</v>
       </c>
       <c r="G47" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3143,22 +3224,22 @@
         <v>154</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>1143</v>
+        <v>2305</v>
       </c>
       <c r="F48">
-        <v>2437</v>
+        <v>2295</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3172,22 +3253,22 @@
         <v>155</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>1034</v>
+        <v>1783</v>
       </c>
       <c r="F49">
-        <v>1490</v>
+        <v>1925</v>
       </c>
       <c r="G49" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3201,22 +3282,22 @@
         <v>156</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>1005</v>
+        <v>961</v>
       </c>
       <c r="F50">
-        <v>1445</v>
+        <v>1810</v>
       </c>
       <c r="G50" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3230,22 +3311,22 @@
         <v>157</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51">
-        <v>759</v>
+        <v>1446</v>
       </c>
       <c r="F51">
-        <v>1636</v>
+        <v>2180</v>
       </c>
       <c r="G51" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3259,22 +3340,22 @@
         <v>158</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>1082</v>
+        <v>1228</v>
       </c>
       <c r="F52">
-        <v>1705</v>
+        <v>1688</v>
       </c>
       <c r="G52" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3291,19 +3372,19 @@
         <v>2</v>
       </c>
       <c r="E53">
-        <v>1272</v>
+        <v>1000</v>
       </c>
       <c r="F53">
-        <v>2250</v>
+        <v>1250</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3319,17 +3400,20 @@
       <c r="D54">
         <v>2</v>
       </c>
+      <c r="E54">
+        <v>893</v>
+      </c>
       <c r="F54">
-        <v>1450</v>
+        <v>1258</v>
       </c>
       <c r="G54" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3343,19 +3427,22 @@
         <v>161</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>2678</v>
       </c>
       <c r="F55">
-        <v>3500</v>
+        <v>2225</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3372,19 +3459,19 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="F56">
-        <v>1258</v>
+        <v>1327</v>
       </c>
       <c r="G56" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3398,22 +3485,22 @@
         <v>163</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>1174</v>
+        <v>922</v>
       </c>
       <c r="F57">
-        <v>1750</v>
+        <v>1429</v>
       </c>
       <c r="G57" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3430,19 +3517,19 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>687</v>
+        <v>912</v>
       </c>
       <c r="F58">
-        <v>1062</v>
+        <v>1376</v>
       </c>
       <c r="G58" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3456,22 +3543,22 @@
         <v>165</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>650</v>
+        <v>1254</v>
       </c>
       <c r="F59">
-        <v>1232</v>
+        <v>2440</v>
       </c>
       <c r="G59" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3487,17 +3574,20 @@
       <c r="D60">
         <v>1</v>
       </c>
+      <c r="E60">
+        <v>683</v>
+      </c>
       <c r="F60">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="G60" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3508,22 +3598,25 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1236</v>
       </c>
       <c r="F61">
-        <v>1690</v>
+        <v>1485</v>
       </c>
       <c r="G61" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3534,22 +3627,25 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>1802</v>
       </c>
       <c r="F62">
-        <v>2300</v>
+        <v>2680</v>
       </c>
       <c r="G62" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3560,22 +3656,25 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>736</v>
       </c>
       <c r="F63">
-        <v>2290</v>
+        <v>1075</v>
       </c>
       <c r="G63" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3586,22 +3685,25 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>2075</v>
       </c>
       <c r="F64">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="G64" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3612,25 +3714,25 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="F65">
-        <v>2200</v>
+        <v>1235</v>
       </c>
       <c r="G65" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3641,25 +3743,25 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>826</v>
+        <v>2100</v>
       </c>
       <c r="F66">
-        <v>1405</v>
+        <v>1750</v>
       </c>
       <c r="G66" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3670,22 +3772,25 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
+      <c r="E67">
+        <v>688</v>
+      </c>
       <c r="F67">
-        <v>1675</v>
+        <v>1225</v>
       </c>
       <c r="G67" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3696,25 +3801,25 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>751</v>
+        <v>3378</v>
       </c>
       <c r="F68">
-        <v>1246</v>
+        <v>2720</v>
       </c>
       <c r="G68" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3728,22 +3833,22 @@
         <v>174</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>871</v>
+        <v>2054</v>
       </c>
       <c r="F69">
-        <v>1150</v>
+        <v>2530</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3757,22 +3862,22 @@
         <v>175</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>516</v>
+        <v>1055</v>
       </c>
       <c r="F70">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="G70" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3786,22 +3891,22 @@
         <v>176</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
-        <v>650</v>
+        <v>1050</v>
       </c>
       <c r="F71">
-        <v>1200</v>
+        <v>1214</v>
       </c>
       <c r="G71" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3812,25 +3917,25 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
-        <v>650</v>
+        <v>913</v>
       </c>
       <c r="F72">
-        <v>1200</v>
+        <v>1671</v>
       </c>
       <c r="G72" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3841,22 +3946,25 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>685</v>
       </c>
       <c r="F73">
-        <v>1350</v>
+        <v>1535</v>
       </c>
       <c r="G73" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3867,25 +3975,25 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74">
-        <v>995</v>
+        <v>913</v>
       </c>
       <c r="F74">
-        <v>1600</v>
+        <v>1671</v>
       </c>
       <c r="G74" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3896,25 +4004,25 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>736</v>
+        <v>684</v>
       </c>
       <c r="F75">
-        <v>1075</v>
+        <v>1030</v>
       </c>
       <c r="G75" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3925,25 +4033,25 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76">
-        <v>1040</v>
+        <v>1005</v>
       </c>
       <c r="F76">
-        <v>1503</v>
+        <v>1450</v>
       </c>
       <c r="G76" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3954,25 +4062,25 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>1167</v>
+        <v>3359</v>
       </c>
       <c r="F77">
-        <v>2095</v>
+        <v>2870</v>
       </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3983,25 +4091,25 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="F78">
-        <v>1485</v>
+        <v>2100</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4012,25 +4120,25 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>922</v>
+        <v>712</v>
       </c>
       <c r="F79">
-        <v>1248</v>
+        <v>1531</v>
       </c>
       <c r="G79" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4041,25 +4149,25 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>1184</v>
+        <v>764</v>
       </c>
       <c r="F80">
-        <v>1804</v>
+        <v>2060</v>
       </c>
       <c r="G80" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4070,25 +4178,25 @@
         <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>1372</v>
+        <v>534</v>
       </c>
       <c r="F81">
-        <v>1795</v>
+        <v>1275</v>
       </c>
       <c r="G81" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4099,25 +4207,25 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>762</v>
+        <v>906</v>
       </c>
       <c r="F82">
-        <v>1219</v>
+        <v>1481</v>
       </c>
       <c r="G82" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4128,25 +4236,25 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83">
-        <v>871</v>
+        <v>1191</v>
       </c>
       <c r="F83">
-        <v>1150</v>
+        <v>1802</v>
       </c>
       <c r="G83" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4157,25 +4265,25 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>755</v>
+        <v>1783</v>
       </c>
       <c r="F84">
-        <v>1696</v>
+        <v>2142</v>
       </c>
       <c r="G84" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4186,25 +4294,25 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>833</v>
+        <v>1408</v>
       </c>
       <c r="F85">
-        <v>1345</v>
+        <v>2360</v>
       </c>
       <c r="G85" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4215,25 +4323,25 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>715</v>
+        <v>680</v>
       </c>
       <c r="F86">
-        <v>1660</v>
+        <v>1618</v>
       </c>
       <c r="G86" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4244,25 +4352,25 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87">
-        <v>995</v>
+        <v>931</v>
       </c>
       <c r="F87">
-        <v>2410</v>
+        <v>2499</v>
       </c>
       <c r="G87" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4273,25 +4381,25 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>1209</v>
+        <v>736</v>
       </c>
       <c r="F88">
-        <v>2354</v>
+        <v>1120</v>
       </c>
       <c r="G88" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4302,25 +4410,25 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>1720</v>
+        <v>776</v>
       </c>
       <c r="F89">
-        <v>3250</v>
+        <v>1299</v>
       </c>
       <c r="G89" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4331,25 +4439,25 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90">
-        <v>1143</v>
+        <v>1340</v>
       </c>
       <c r="F90">
-        <v>2375</v>
+        <v>1480</v>
       </c>
       <c r="G90" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4360,25 +4468,25 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>1143</v>
+        <v>2232</v>
       </c>
       <c r="F91">
-        <v>2375</v>
+        <v>2790</v>
       </c>
       <c r="G91" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4389,25 +4497,25 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92">
-        <v>1000</v>
+        <v>637</v>
       </c>
       <c r="F92">
-        <v>2025</v>
+        <v>1164</v>
       </c>
       <c r="G92" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4418,25 +4526,25 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="F93">
-        <v>2025</v>
+        <v>1847</v>
       </c>
       <c r="G93" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4447,25 +4555,25 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>523</v>
+        <v>1167</v>
       </c>
       <c r="F94">
-        <v>1365</v>
+        <v>2475</v>
       </c>
       <c r="G94" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4476,25 +4584,25 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>1071</v>
+        <v>650</v>
       </c>
       <c r="F95">
-        <v>2059</v>
+        <v>1075</v>
       </c>
       <c r="G95" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4505,25 +4613,25 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F96">
-        <v>1414</v>
+        <v>1553</v>
       </c>
       <c r="G96" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4534,25 +4642,25 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97">
-        <v>1623</v>
+        <v>1108</v>
       </c>
       <c r="F97">
-        <v>2189</v>
+        <v>2665</v>
       </c>
       <c r="G97" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4563,25 +4671,25 @@
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98">
-        <v>1879</v>
+        <v>983</v>
       </c>
       <c r="F98">
-        <v>3847</v>
+        <v>2206</v>
       </c>
       <c r="G98" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4592,25 +4700,25 @@
         <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99">
-        <v>1136</v>
+        <v>1393</v>
       </c>
       <c r="F99">
-        <v>1939</v>
+        <v>1915</v>
       </c>
       <c r="G99" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4621,25 +4729,25 @@
         <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>700</v>
+        <v>993</v>
       </c>
       <c r="F100">
-        <v>1428</v>
+        <v>1686</v>
       </c>
       <c r="G100" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4650,25 +4758,25 @@
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1008</v>
+        <v>738</v>
       </c>
       <c r="F101">
-        <v>1666</v>
+        <v>1599</v>
       </c>
       <c r="G101" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
